--- a/store_url_mapping.xlsx
+++ b/store_url_mapping.xlsx
@@ -110,9 +110,6 @@
     <t>https://item.jd.com/1080961.html</t>
   </si>
   <si>
-    <t>MOM</t>
-  </si>
-  <si>
     <t>雀巢官方专卖店</t>
   </si>
   <si>
@@ -1212,6 +1209,9 @@
   </si>
   <si>
     <t>Brand</t>
+  </si>
+  <si>
+    <t>MAM</t>
   </si>
 </sst>
 </file>
@@ -1552,10 +1552,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D17" sqref="D17:D311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1579,16 +1580,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1608,7 +1609,7 @@
         <v>4396232</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1628,7 +1629,7 @@
         <v>4396142</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1648,7 +1649,7 @@
         <v>3849865</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" hidden="1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1668,7 +1669,7 @@
         <v>4209173</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1688,7 +1689,7 @@
         <v>5285870</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" hidden="1">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1708,7 +1709,7 @@
         <v>4713594</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" hidden="1">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1728,7 +1729,7 @@
         <v>4008365</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" hidden="1">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1748,7 +1749,7 @@
         <v>4713572</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" hidden="1">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1768,7 +1769,7 @@
         <v>4712764</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1788,7 +1789,7 @@
         <v>4712778</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1808,7 +1809,7 @@
         <v>4007911</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" hidden="1">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1828,7 +1829,7 @@
         <v>4712762</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" hidden="1">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1848,7 +1849,7 @@
         <v>4712736</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" hidden="1">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1868,7 +1869,7 @@
         <v>4007909</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" hidden="1">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1899,7 +1900,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>394</v>
       </c>
       <c r="E17" t="s">
         <v>24</v>
@@ -1919,7 +1920,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>394</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
@@ -1928,7 +1929,7 @@
         <v>255780</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" hidden="1">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1948,841 +1949,841 @@
         <v>1080961</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" hidden="1">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
         <v>28</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
         <v>29</v>
-      </c>
-      <c r="D20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" t="s">
-        <v>30</v>
       </c>
       <c r="F20">
         <v>25931802723</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" hidden="1">
       <c r="A21" t="s">
         <v>4</v>
       </c>
       <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21">
         <v>25092330368</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" hidden="1">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
         <v>28</v>
       </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22">
         <v>25050683515</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" hidden="1">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23">
         <v>25050683514</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" hidden="1">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24">
         <v>13695381271</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" hidden="1">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
         <v>28</v>
       </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25">
         <v>13695381267</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" hidden="1">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
         <v>28</v>
       </c>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26">
         <v>13695381268</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" hidden="1">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
         <v>28</v>
       </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27">
         <v>13695381265</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" hidden="1">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28">
         <v>13695381270</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" hidden="1">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
-        <v>29</v>
-      </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29">
         <v>13695381262</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" hidden="1">
       <c r="A30" t="s">
         <v>4</v>
       </c>
       <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
         <v>28</v>
       </c>
-      <c r="C30" t="s">
-        <v>29</v>
-      </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30">
         <v>13695381264</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" hidden="1">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
         <v>28</v>
       </c>
-      <c r="C31" t="s">
-        <v>29</v>
-      </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31">
         <v>13695381263</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" hidden="1">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
         <v>28</v>
       </c>
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F32">
         <v>13695381269</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" hidden="1">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
         <v>28</v>
       </c>
-      <c r="C33" t="s">
-        <v>29</v>
-      </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F33">
         <v>13695381266</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" hidden="1">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
         <v>28</v>
       </c>
-      <c r="C34" t="s">
-        <v>29</v>
-      </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34">
         <v>12299826003</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" hidden="1">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
         <v>28</v>
       </c>
-      <c r="C35" t="s">
-        <v>29</v>
-      </c>
       <c r="D35" t="s">
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F35">
         <v>18555840051</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" hidden="1">
       <c r="A36" t="s">
         <v>4</v>
       </c>
       <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
         <v>28</v>
       </c>
-      <c r="C36" t="s">
-        <v>29</v>
-      </c>
       <c r="D36" t="s">
         <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F36">
         <v>18555840050</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" hidden="1">
       <c r="A37" t="s">
         <v>4</v>
       </c>
       <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" t="s">
         <v>28</v>
       </c>
-      <c r="C37" t="s">
-        <v>29</v>
-      </c>
       <c r="D37" t="s">
         <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F37">
         <v>12424332573</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" hidden="1">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
         <v>28</v>
-      </c>
-      <c r="C38" t="s">
-        <v>29</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F38">
         <v>16546674330</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" hidden="1">
       <c r="A39" t="s">
         <v>4</v>
       </c>
       <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
         <v>28</v>
-      </c>
-      <c r="C39" t="s">
-        <v>29</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F39">
         <v>16546674329</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" hidden="1">
       <c r="A40" t="s">
         <v>4</v>
       </c>
       <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
         <v>28</v>
-      </c>
-      <c r="C40" t="s">
-        <v>29</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F40">
         <v>13675223690</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" hidden="1">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
         <v>28</v>
-      </c>
-      <c r="C41" t="s">
-        <v>29</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F41">
         <v>12082162643</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" hidden="1">
       <c r="A42" t="s">
         <v>4</v>
       </c>
       <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
         <v>28</v>
       </c>
-      <c r="C42" t="s">
-        <v>29</v>
-      </c>
       <c r="D42" t="s">
         <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F42">
         <v>16545462931</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" hidden="1">
       <c r="A43" t="s">
         <v>4</v>
       </c>
       <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
         <v>28</v>
       </c>
-      <c r="C43" t="s">
-        <v>29</v>
-      </c>
       <c r="D43" t="s">
         <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F43">
         <v>16545462930</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" hidden="1">
       <c r="A44" t="s">
         <v>4</v>
       </c>
       <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
         <v>28</v>
       </c>
-      <c r="C44" t="s">
-        <v>29</v>
-      </c>
       <c r="D44" t="s">
         <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F44">
         <v>16545462929</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" hidden="1">
       <c r="A45" t="s">
         <v>4</v>
       </c>
       <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
         <v>28</v>
       </c>
-      <c r="C45" t="s">
-        <v>29</v>
-      </c>
       <c r="D45" t="s">
         <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F45">
         <v>12083025102</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" hidden="1">
       <c r="A46" t="s">
         <v>4</v>
       </c>
       <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
         <v>28</v>
       </c>
-      <c r="C46" t="s">
-        <v>29</v>
-      </c>
       <c r="D46" t="s">
         <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F46">
         <v>16544948616</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" hidden="1">
       <c r="A47" t="s">
         <v>4</v>
       </c>
       <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
         <v>28</v>
       </c>
-      <c r="C47" t="s">
-        <v>29</v>
-      </c>
       <c r="D47" t="s">
         <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F47">
         <v>16544948617</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" hidden="1">
       <c r="A48" t="s">
         <v>4</v>
       </c>
       <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" t="s">
         <v>28</v>
       </c>
-      <c r="C48" t="s">
-        <v>29</v>
-      </c>
       <c r="D48" t="s">
         <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F48">
         <v>13675552365</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" hidden="1">
       <c r="A49" t="s">
         <v>4</v>
       </c>
       <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" t="s">
         <v>28</v>
       </c>
-      <c r="C49" t="s">
-        <v>29</v>
-      </c>
       <c r="D49" t="s">
         <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F49">
         <v>12083146163</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" hidden="1">
       <c r="A50" t="s">
         <v>4</v>
       </c>
       <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" t="s">
         <v>28</v>
-      </c>
-      <c r="C50" t="s">
-        <v>29</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F50">
         <v>16498569454</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" hidden="1">
       <c r="A51" t="s">
         <v>4</v>
       </c>
       <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" t="s">
         <v>28</v>
       </c>
-      <c r="C51" t="s">
-        <v>29</v>
-      </c>
       <c r="D51" t="s">
         <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F51">
         <v>14446124474</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" hidden="1">
       <c r="A52" t="s">
         <v>4</v>
       </c>
       <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" t="s">
         <v>28</v>
       </c>
-      <c r="C52" t="s">
-        <v>29</v>
-      </c>
       <c r="D52" t="s">
         <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F52">
         <v>14446124475</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" hidden="1">
       <c r="A53" t="s">
         <v>4</v>
       </c>
       <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" t="s">
         <v>28</v>
       </c>
-      <c r="C53" t="s">
-        <v>29</v>
-      </c>
       <c r="D53" t="s">
         <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F53">
         <v>12400757767</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" hidden="1">
       <c r="A54" t="s">
         <v>4</v>
       </c>
       <c r="B54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" t="s">
         <v>28</v>
       </c>
-      <c r="C54" t="s">
-        <v>29</v>
-      </c>
       <c r="D54" t="s">
         <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F54">
         <v>12083388599</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" hidden="1">
       <c r="A55" t="s">
         <v>4</v>
       </c>
       <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" t="s">
         <v>28</v>
-      </c>
-      <c r="C55" t="s">
-        <v>29</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F55">
         <v>14445404727</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" hidden="1">
       <c r="A56" t="s">
         <v>4</v>
       </c>
       <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
         <v>28</v>
-      </c>
-      <c r="C56" t="s">
-        <v>29</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F56">
         <v>14445404726</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" hidden="1">
       <c r="A57" t="s">
         <v>4</v>
       </c>
       <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
         <v>28</v>
-      </c>
-      <c r="C57" t="s">
-        <v>29</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F57">
         <v>13638853955</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" hidden="1">
       <c r="A58" t="s">
         <v>4</v>
       </c>
       <c r="B58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" t="s">
         <v>28</v>
-      </c>
-      <c r="C58" t="s">
-        <v>29</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F58">
         <v>12082373228</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" hidden="1">
       <c r="A59" t="s">
         <v>4</v>
       </c>
       <c r="B59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" t="s">
         <v>28</v>
       </c>
-      <c r="C59" t="s">
-        <v>29</v>
-      </c>
       <c r="D59" t="s">
         <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F59">
         <v>14441834226</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" hidden="1">
       <c r="A60" t="s">
         <v>4</v>
       </c>
       <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" t="s">
         <v>28</v>
       </c>
-      <c r="C60" t="s">
-        <v>29</v>
-      </c>
       <c r="D60" t="s">
         <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F60">
         <v>13639679598</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" hidden="1">
       <c r="A61" t="s">
         <v>4</v>
       </c>
       <c r="B61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" t="s">
         <v>28</v>
       </c>
-      <c r="C61" t="s">
-        <v>29</v>
-      </c>
       <c r="D61" t="s">
         <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F61">
         <v>12423814698</v>
@@ -2793,16 +2794,16 @@
         <v>4</v>
       </c>
       <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" t="s">
         <v>28</v>
       </c>
-      <c r="C62" t="s">
-        <v>29</v>
-      </c>
       <c r="D62" t="s">
-        <v>27</v>
+        <v>394</v>
       </c>
       <c r="E62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F62">
         <v>13924713473</v>
@@ -2813,236 +2814,236 @@
         <v>4</v>
       </c>
       <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" t="s">
         <v>28</v>
       </c>
-      <c r="C63" t="s">
-        <v>29</v>
-      </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>394</v>
       </c>
       <c r="E63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F63">
         <v>12298574507</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" hidden="1">
       <c r="A64" t="s">
         <v>4</v>
       </c>
       <c r="B64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" t="s">
         <v>28</v>
       </c>
-      <c r="C64" t="s">
-        <v>29</v>
-      </c>
       <c r="D64" t="s">
         <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F64">
         <v>13741836484</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" hidden="1">
       <c r="A65" t="s">
         <v>4</v>
       </c>
       <c r="B65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" t="s">
         <v>28</v>
       </c>
-      <c r="C65" t="s">
-        <v>29</v>
-      </c>
       <c r="D65" t="s">
         <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F65">
         <v>13741836486</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" hidden="1">
       <c r="A66" t="s">
         <v>4</v>
       </c>
       <c r="B66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" t="s">
         <v>28</v>
       </c>
-      <c r="C66" t="s">
-        <v>29</v>
-      </c>
       <c r="D66" t="s">
         <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F66">
         <v>13741836485</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" hidden="1">
       <c r="A67" t="s">
         <v>4</v>
       </c>
       <c r="B67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" t="s">
         <v>28</v>
       </c>
-      <c r="C67" t="s">
-        <v>29</v>
-      </c>
       <c r="D67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F67">
         <v>13674904462</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" hidden="1">
       <c r="A68" t="s">
         <v>4</v>
       </c>
       <c r="B68" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" t="s">
         <v>28</v>
       </c>
-      <c r="C68" t="s">
-        <v>29</v>
-      </c>
       <c r="D68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F68">
         <v>13674904461</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" hidden="1">
       <c r="A69" t="s">
         <v>4</v>
       </c>
       <c r="B69" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" t="s">
         <v>28</v>
       </c>
-      <c r="C69" t="s">
-        <v>29</v>
-      </c>
       <c r="D69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F69">
         <v>13674728744</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" hidden="1">
       <c r="A70" t="s">
         <v>4</v>
       </c>
       <c r="B70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" t="s">
         <v>28</v>
       </c>
-      <c r="C70" t="s">
-        <v>29</v>
-      </c>
       <c r="D70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F70">
         <v>13674728743</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" hidden="1">
       <c r="A71" t="s">
         <v>4</v>
       </c>
       <c r="B71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" t="s">
         <v>28</v>
       </c>
-      <c r="C71" t="s">
-        <v>29</v>
-      </c>
       <c r="D71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F71">
         <v>13674506362</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" hidden="1">
       <c r="A72" t="s">
         <v>4</v>
       </c>
       <c r="B72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" t="s">
         <v>28</v>
       </c>
-      <c r="C72" t="s">
-        <v>29</v>
-      </c>
       <c r="D72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F72">
         <v>13674506361</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" hidden="1">
       <c r="A73" t="s">
         <v>4</v>
       </c>
       <c r="B73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" t="s">
         <v>28</v>
       </c>
-      <c r="C73" t="s">
-        <v>29</v>
-      </c>
       <c r="D73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F73">
         <v>13674411005</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" hidden="1">
       <c r="A74" t="s">
         <v>4</v>
       </c>
       <c r="B74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" t="s">
         <v>28</v>
       </c>
-      <c r="C74" t="s">
-        <v>29</v>
-      </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F74">
         <v>13674411004</v>
@@ -3053,16 +3054,16 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" t="s">
         <v>28</v>
       </c>
-      <c r="C75" t="s">
-        <v>29</v>
-      </c>
       <c r="D75" t="s">
-        <v>27</v>
+        <v>394</v>
       </c>
       <c r="E75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F75">
         <v>13516246556</v>
@@ -3073,1036 +3074,1036 @@
         <v>4</v>
       </c>
       <c r="B76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" t="s">
         <v>28</v>
       </c>
-      <c r="C76" t="s">
-        <v>29</v>
-      </c>
       <c r="D76" t="s">
-        <v>27</v>
+        <v>394</v>
       </c>
       <c r="E76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F76">
         <v>13516246557</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" hidden="1">
       <c r="A77" t="s">
         <v>4</v>
       </c>
       <c r="B77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" t="s">
         <v>28</v>
       </c>
-      <c r="C77" t="s">
-        <v>29</v>
-      </c>
       <c r="D77" t="s">
         <v>13</v>
       </c>
       <c r="E77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F77">
         <v>12656575216</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" hidden="1">
       <c r="A78" t="s">
         <v>4</v>
       </c>
       <c r="B78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" t="s">
         <v>28</v>
       </c>
-      <c r="C78" t="s">
-        <v>29</v>
-      </c>
       <c r="D78" t="s">
         <v>13</v>
       </c>
       <c r="E78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F78">
         <v>12656575217</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" hidden="1">
       <c r="A79" t="s">
         <v>4</v>
       </c>
       <c r="B79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" t="s">
         <v>28</v>
       </c>
-      <c r="C79" t="s">
-        <v>29</v>
-      </c>
       <c r="D79" t="s">
         <v>13</v>
       </c>
       <c r="E79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F79">
         <v>12656575218</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" hidden="1">
       <c r="A80" t="s">
         <v>4</v>
       </c>
       <c r="B80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" t="s">
         <v>28</v>
       </c>
-      <c r="C80" t="s">
-        <v>29</v>
-      </c>
       <c r="D80" t="s">
         <v>13</v>
       </c>
       <c r="E80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F80">
         <v>12424200273</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" hidden="1">
       <c r="A81" t="s">
         <v>4</v>
       </c>
       <c r="B81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" t="s">
         <v>28</v>
       </c>
-      <c r="C81" t="s">
-        <v>29</v>
-      </c>
       <c r="D81" t="s">
         <v>13</v>
       </c>
       <c r="E81" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F81">
         <v>12539168859</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" hidden="1">
       <c r="A82" t="s">
         <v>4</v>
       </c>
       <c r="B82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" t="s">
         <v>28</v>
-      </c>
-      <c r="C82" t="s">
-        <v>29</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
       </c>
       <c r="E82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F82">
         <v>12538674481</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" hidden="1">
       <c r="A83" t="s">
         <v>4</v>
       </c>
       <c r="B83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" t="s">
         <v>28</v>
       </c>
-      <c r="C83" t="s">
-        <v>29</v>
-      </c>
       <c r="D83" t="s">
         <v>13</v>
       </c>
       <c r="E83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F83">
         <v>12400682887</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" hidden="1">
       <c r="A84" t="s">
         <v>4</v>
       </c>
       <c r="B84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" t="s">
         <v>28</v>
       </c>
-      <c r="C84" t="s">
-        <v>29</v>
-      </c>
       <c r="D84" t="s">
         <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F84">
         <v>13467926194</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" hidden="1">
       <c r="A85" t="s">
         <v>4</v>
       </c>
       <c r="B85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" t="s">
         <v>28</v>
       </c>
-      <c r="C85" t="s">
-        <v>29</v>
-      </c>
       <c r="D85" t="s">
         <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F85">
         <v>12170684578</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" hidden="1">
       <c r="A86" t="s">
         <v>4</v>
       </c>
       <c r="B86" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" t="s">
         <v>28</v>
       </c>
-      <c r="C86" t="s">
-        <v>29</v>
-      </c>
       <c r="D86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F86">
         <v>12301482752</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" hidden="1">
       <c r="A87" t="s">
         <v>4</v>
       </c>
       <c r="B87" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" t="s">
         <v>28</v>
       </c>
-      <c r="C87" t="s">
-        <v>29</v>
-      </c>
       <c r="D87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F87">
         <v>12301180135</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" hidden="1">
       <c r="A88" t="s">
         <v>4</v>
       </c>
       <c r="B88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" t="s">
         <v>28</v>
       </c>
-      <c r="C88" t="s">
-        <v>29</v>
-      </c>
       <c r="D88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E88" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F88">
         <v>12301067262</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" hidden="1">
       <c r="A89" t="s">
         <v>4</v>
       </c>
       <c r="B89" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" t="s">
         <v>28</v>
       </c>
-      <c r="C89" t="s">
-        <v>29</v>
-      </c>
       <c r="D89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F89">
         <v>12300597399</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" hidden="1">
       <c r="A90" t="s">
         <v>4</v>
       </c>
       <c r="B90" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90" t="s">
         <v>28</v>
       </c>
-      <c r="C90" t="s">
-        <v>29</v>
-      </c>
       <c r="D90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F90">
         <v>12300109800</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" hidden="1">
       <c r="A91" t="s">
         <v>4</v>
       </c>
       <c r="B91" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" t="s">
         <v>28</v>
       </c>
-      <c r="C91" t="s">
-        <v>29</v>
-      </c>
       <c r="D91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F91">
         <v>12299611125</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" hidden="1">
       <c r="A92" t="s">
         <v>4</v>
       </c>
       <c r="B92" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" t="s">
         <v>28</v>
       </c>
-      <c r="C92" t="s">
-        <v>29</v>
-      </c>
       <c r="D92" t="s">
         <v>13</v>
       </c>
       <c r="E92" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F92">
         <v>12085074541</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" hidden="1">
       <c r="A93" t="s">
         <v>4</v>
       </c>
       <c r="B93" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" t="s">
         <v>28</v>
       </c>
-      <c r="C93" t="s">
-        <v>29</v>
-      </c>
       <c r="D93" t="s">
         <v>13</v>
       </c>
       <c r="E93" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F93">
         <v>12082581959</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" hidden="1">
       <c r="A94" t="s">
         <v>4</v>
       </c>
       <c r="B94" t="s">
+        <v>104</v>
+      </c>
+      <c r="C94" t="s">
         <v>105</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
+        <v>44</v>
+      </c>
+      <c r="E94" t="s">
         <v>106</v>
-      </c>
-      <c r="D94" t="s">
-        <v>45</v>
-      </c>
-      <c r="E94" t="s">
-        <v>107</v>
       </c>
       <c r="F94">
         <v>1240027</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" hidden="1">
       <c r="A95" t="s">
         <v>4</v>
       </c>
       <c r="B95" t="s">
+        <v>104</v>
+      </c>
+      <c r="C95" t="s">
         <v>105</v>
       </c>
-      <c r="C95" t="s">
-        <v>106</v>
-      </c>
       <c r="D95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E95" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F95">
         <v>255803</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" hidden="1">
       <c r="A96" t="s">
         <v>4</v>
       </c>
       <c r="B96" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" t="s">
         <v>105</v>
       </c>
-      <c r="C96" t="s">
-        <v>106</v>
-      </c>
       <c r="D96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F96">
         <v>255802</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" hidden="1">
       <c r="A97" t="s">
         <v>4</v>
       </c>
       <c r="B97" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97" t="s">
         <v>105</v>
       </c>
-      <c r="C97" t="s">
-        <v>106</v>
-      </c>
       <c r="D97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F97">
         <v>1240022</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" hidden="1">
       <c r="A98" t="s">
         <v>4</v>
       </c>
       <c r="B98" t="s">
+        <v>104</v>
+      </c>
+      <c r="C98" t="s">
         <v>105</v>
       </c>
-      <c r="C98" t="s">
-        <v>106</v>
-      </c>
       <c r="D98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E98" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F98">
         <v>4857678</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" hidden="1">
       <c r="A99" t="s">
         <v>4</v>
       </c>
       <c r="B99" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99" t="s">
         <v>105</v>
       </c>
-      <c r="C99" t="s">
-        <v>106</v>
-      </c>
       <c r="D99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E99" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F99">
         <v>255797</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" hidden="1">
       <c r="A100" t="s">
         <v>4</v>
       </c>
       <c r="B100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" t="s">
         <v>105</v>
       </c>
-      <c r="C100" t="s">
-        <v>106</v>
-      </c>
       <c r="D100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F100">
         <v>1140667</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" hidden="1">
       <c r="A101" t="s">
         <v>4</v>
       </c>
       <c r="B101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" t="s">
         <v>105</v>
       </c>
-      <c r="C101" t="s">
-        <v>106</v>
-      </c>
       <c r="D101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F101">
         <v>255800</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" hidden="1">
       <c r="A102" t="s">
         <v>4</v>
       </c>
       <c r="B102" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" t="s">
         <v>105</v>
       </c>
-      <c r="C102" t="s">
-        <v>106</v>
-      </c>
       <c r="D102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F102">
         <v>4080239</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" hidden="1">
       <c r="A103" t="s">
         <v>4</v>
       </c>
       <c r="B103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" t="s">
         <v>105</v>
       </c>
-      <c r="C103" t="s">
-        <v>106</v>
-      </c>
       <c r="D103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E103" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F103">
         <v>255798</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" hidden="1">
       <c r="A104" t="s">
         <v>4</v>
       </c>
       <c r="B104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" t="s">
         <v>105</v>
       </c>
-      <c r="C104" t="s">
-        <v>106</v>
-      </c>
       <c r="D104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E104" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F104">
         <v>255799</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" hidden="1">
       <c r="A105" t="s">
         <v>4</v>
       </c>
       <c r="B105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
         <v>105</v>
       </c>
-      <c r="C105" t="s">
-        <v>106</v>
-      </c>
       <c r="D105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E105" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F105">
         <v>6084935</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" hidden="1">
       <c r="A106" t="s">
         <v>4</v>
       </c>
       <c r="B106" t="s">
+        <v>104</v>
+      </c>
+      <c r="C106" t="s">
         <v>105</v>
       </c>
-      <c r="C106" t="s">
-        <v>106</v>
-      </c>
       <c r="D106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E106" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F106">
         <v>1240023</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" hidden="1">
       <c r="A107" t="s">
         <v>4</v>
       </c>
       <c r="B107" t="s">
+        <v>104</v>
+      </c>
+      <c r="C107" t="s">
         <v>105</v>
       </c>
-      <c r="C107" t="s">
-        <v>106</v>
-      </c>
       <c r="D107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E107" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F107">
         <v>1240024</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" hidden="1">
       <c r="A108" t="s">
         <v>4</v>
       </c>
       <c r="B108" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108" t="s">
         <v>105</v>
       </c>
-      <c r="C108" t="s">
-        <v>106</v>
-      </c>
       <c r="D108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F108">
         <v>6078298</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" hidden="1">
       <c r="A109" t="s">
         <v>4</v>
       </c>
       <c r="B109" t="s">
+        <v>104</v>
+      </c>
+      <c r="C109" t="s">
         <v>105</v>
       </c>
-      <c r="C109" t="s">
-        <v>106</v>
-      </c>
       <c r="D109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E109" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F109">
         <v>5186742</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" hidden="1">
       <c r="A110" t="s">
         <v>4</v>
       </c>
       <c r="B110" t="s">
+        <v>104</v>
+      </c>
+      <c r="C110" t="s">
         <v>105</v>
       </c>
-      <c r="C110" t="s">
-        <v>106</v>
-      </c>
       <c r="D110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E110" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F110">
         <v>1339986</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" hidden="1">
       <c r="A111" t="s">
         <v>4</v>
       </c>
       <c r="B111" t="s">
+        <v>104</v>
+      </c>
+      <c r="C111" t="s">
         <v>105</v>
       </c>
-      <c r="C111" t="s">
-        <v>106</v>
-      </c>
       <c r="D111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E111" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F111">
         <v>1339964</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" hidden="1">
       <c r="A112" t="s">
         <v>4</v>
       </c>
       <c r="B112" t="s">
+        <v>104</v>
+      </c>
+      <c r="C112" t="s">
         <v>105</v>
       </c>
-      <c r="C112" t="s">
-        <v>106</v>
-      </c>
       <c r="D112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E112" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F112">
         <v>1339980</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" hidden="1">
       <c r="A113" t="s">
         <v>4</v>
       </c>
       <c r="B113" t="s">
+        <v>104</v>
+      </c>
+      <c r="C113" t="s">
         <v>105</v>
       </c>
-      <c r="C113" t="s">
-        <v>106</v>
-      </c>
       <c r="D113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E113" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F113">
         <v>1339973</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" hidden="1">
       <c r="A114" t="s">
         <v>4</v>
       </c>
       <c r="B114" t="s">
+        <v>104</v>
+      </c>
+      <c r="C114" t="s">
         <v>105</v>
       </c>
-      <c r="C114" t="s">
-        <v>106</v>
-      </c>
       <c r="D114" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E114" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F114">
         <v>1339960</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" hidden="1">
       <c r="A115" t="s">
         <v>4</v>
       </c>
       <c r="B115" t="s">
+        <v>104</v>
+      </c>
+      <c r="C115" t="s">
         <v>105</v>
       </c>
-      <c r="C115" t="s">
-        <v>106</v>
-      </c>
       <c r="D115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E115" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F115">
         <v>1339978</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" hidden="1">
       <c r="A116" t="s">
         <v>4</v>
       </c>
       <c r="B116" t="s">
+        <v>104</v>
+      </c>
+      <c r="C116" t="s">
         <v>105</v>
       </c>
-      <c r="C116" t="s">
-        <v>106</v>
-      </c>
       <c r="D116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E116" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F116">
         <v>1339976</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" hidden="1">
       <c r="A117" t="s">
         <v>4</v>
       </c>
       <c r="B117" t="s">
+        <v>104</v>
+      </c>
+      <c r="C117" t="s">
         <v>105</v>
       </c>
-      <c r="C117" t="s">
-        <v>106</v>
-      </c>
       <c r="D117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E117" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F117">
         <v>1339992</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" hidden="1">
       <c r="A118" t="s">
         <v>4</v>
       </c>
       <c r="B118" t="s">
+        <v>104</v>
+      </c>
+      <c r="C118" t="s">
         <v>105</v>
       </c>
-      <c r="C118" t="s">
-        <v>106</v>
-      </c>
       <c r="D118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E118" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F118">
         <v>1339977</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" hidden="1">
       <c r="A119" t="s">
         <v>4</v>
       </c>
       <c r="B119" t="s">
+        <v>104</v>
+      </c>
+      <c r="C119" t="s">
         <v>105</v>
       </c>
-      <c r="C119" t="s">
-        <v>106</v>
-      </c>
       <c r="D119" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E119" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F119">
         <v>1339987</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" hidden="1">
       <c r="A120" t="s">
         <v>4</v>
       </c>
       <c r="B120" t="s">
+        <v>104</v>
+      </c>
+      <c r="C120" t="s">
         <v>105</v>
       </c>
-      <c r="C120" t="s">
-        <v>106</v>
-      </c>
       <c r="D120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E120" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F120">
         <v>1339993</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" hidden="1">
       <c r="A121" t="s">
         <v>4</v>
       </c>
       <c r="B121" t="s">
+        <v>104</v>
+      </c>
+      <c r="C121" t="s">
         <v>105</v>
       </c>
-      <c r="C121" t="s">
-        <v>106</v>
-      </c>
       <c r="D121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E121" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F121">
         <v>1339981</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" hidden="1">
       <c r="A122" t="s">
         <v>4</v>
       </c>
       <c r="B122" t="s">
+        <v>104</v>
+      </c>
+      <c r="C122" t="s">
         <v>105</v>
       </c>
-      <c r="C122" t="s">
-        <v>106</v>
-      </c>
       <c r="D122" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E122" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F122">
         <v>1339982</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" hidden="1">
       <c r="A123" t="s">
         <v>4</v>
       </c>
       <c r="B123" t="s">
+        <v>104</v>
+      </c>
+      <c r="C123" t="s">
         <v>105</v>
       </c>
-      <c r="C123" t="s">
-        <v>106</v>
-      </c>
       <c r="D123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E123" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F123">
         <v>1339965</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" hidden="1">
       <c r="A124" t="s">
         <v>4</v>
       </c>
       <c r="B124" t="s">
+        <v>104</v>
+      </c>
+      <c r="C124" t="s">
         <v>105</v>
       </c>
-      <c r="C124" t="s">
-        <v>106</v>
-      </c>
       <c r="D124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E124" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F124">
         <v>1339983</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" hidden="1">
       <c r="A125" t="s">
         <v>4</v>
       </c>
       <c r="B125" t="s">
+        <v>104</v>
+      </c>
+      <c r="C125" t="s">
         <v>105</v>
       </c>
-      <c r="C125" t="s">
-        <v>106</v>
-      </c>
       <c r="D125" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E125" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F125">
         <v>1339974</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" hidden="1">
       <c r="A126" t="s">
         <v>4</v>
       </c>
       <c r="B126" t="s">
+        <v>104</v>
+      </c>
+      <c r="C126" t="s">
         <v>105</v>
       </c>
-      <c r="C126" t="s">
-        <v>106</v>
-      </c>
       <c r="D126" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E126" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F126">
         <v>4244687</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" hidden="1">
       <c r="A127" t="s">
         <v>4</v>
       </c>
       <c r="B127" t="s">
+        <v>104</v>
+      </c>
+      <c r="C127" t="s">
         <v>105</v>
       </c>
-      <c r="C127" t="s">
-        <v>106</v>
-      </c>
       <c r="D127" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E127" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F127">
         <v>5236331</v>
@@ -4110,19 +4111,19 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
+        <v>149</v>
+      </c>
+      <c r="B128" t="s">
         <v>150</v>
       </c>
-      <c r="B128" t="s">
-        <v>151</v>
-      </c>
       <c r="C128" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D128" t="s">
-        <v>27</v>
+        <v>394</v>
       </c>
       <c r="E128" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F128">
         <v>102878789</v>
@@ -4130,1079 +4131,1079 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
+        <v>149</v>
+      </c>
+      <c r="B129" t="s">
         <v>150</v>
       </c>
-      <c r="B129" t="s">
-        <v>151</v>
-      </c>
       <c r="C129" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D129" t="s">
-        <v>27</v>
+        <v>394</v>
       </c>
       <c r="E129" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F129">
         <v>102878788</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" hidden="1">
       <c r="A130" t="s">
+        <v>149</v>
+      </c>
+      <c r="B130" t="s">
         <v>150</v>
       </c>
-      <c r="B130" t="s">
-        <v>151</v>
-      </c>
       <c r="C130" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D130" t="s">
         <v>13</v>
       </c>
       <c r="E130" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F130">
         <v>610800872</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" hidden="1">
       <c r="A131" t="s">
+        <v>149</v>
+      </c>
+      <c r="B131" t="s">
         <v>150</v>
       </c>
-      <c r="B131" t="s">
-        <v>151</v>
-      </c>
       <c r="C131" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D131" t="s">
         <v>13</v>
       </c>
       <c r="E131" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F131">
         <v>610800875</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" hidden="1">
       <c r="A132" t="s">
+        <v>149</v>
+      </c>
+      <c r="B132" t="s">
         <v>150</v>
       </c>
-      <c r="B132" t="s">
-        <v>151</v>
-      </c>
       <c r="C132" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D132" t="s">
         <v>13</v>
       </c>
       <c r="E132" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F132">
         <v>103630807</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" hidden="1">
       <c r="A133" t="s">
+        <v>149</v>
+      </c>
+      <c r="B133" t="s">
         <v>150</v>
       </c>
-      <c r="B133" t="s">
-        <v>151</v>
-      </c>
       <c r="C133" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D133" t="s">
         <v>13</v>
       </c>
       <c r="E133" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F133">
         <v>610800873</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" hidden="1">
       <c r="A134" t="s">
+        <v>149</v>
+      </c>
+      <c r="B134" t="s">
         <v>150</v>
       </c>
-      <c r="B134" t="s">
-        <v>151</v>
-      </c>
       <c r="C134" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D134" t="s">
         <v>13</v>
       </c>
       <c r="E134" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F134">
         <v>610800876</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" hidden="1">
       <c r="A135" t="s">
+        <v>149</v>
+      </c>
+      <c r="B135" t="s">
         <v>150</v>
       </c>
-      <c r="B135" t="s">
-        <v>151</v>
-      </c>
       <c r="C135" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D135" t="s">
         <v>13</v>
       </c>
       <c r="E135" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F135">
         <v>610800856</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" hidden="1">
       <c r="A136" t="s">
+        <v>149</v>
+      </c>
+      <c r="B136" t="s">
         <v>150</v>
       </c>
-      <c r="B136" t="s">
-        <v>151</v>
-      </c>
       <c r="C136" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D136" t="s">
         <v>13</v>
       </c>
       <c r="E136" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F136">
         <v>610800855</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" hidden="1">
       <c r="A137" t="s">
+        <v>149</v>
+      </c>
+      <c r="B137" t="s">
         <v>150</v>
       </c>
-      <c r="B137" t="s">
-        <v>151</v>
-      </c>
       <c r="C137" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D137" t="s">
         <v>13</v>
       </c>
       <c r="E137" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F137">
         <v>610800857</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" hidden="1">
       <c r="A138" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138" t="s">
         <v>150</v>
       </c>
-      <c r="B138" t="s">
-        <v>151</v>
-      </c>
       <c r="C138" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D138" t="s">
         <v>13</v>
       </c>
       <c r="E138" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F138">
         <v>610800858</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" hidden="1">
       <c r="A139" t="s">
+        <v>149</v>
+      </c>
+      <c r="B139" t="s">
         <v>150</v>
       </c>
-      <c r="B139" t="s">
-        <v>151</v>
-      </c>
       <c r="C139" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D139" t="s">
         <v>13</v>
       </c>
       <c r="E139" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F139">
         <v>610800874</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" hidden="1">
       <c r="A140" t="s">
+        <v>149</v>
+      </c>
+      <c r="B140" t="s">
         <v>150</v>
       </c>
-      <c r="B140" t="s">
-        <v>151</v>
-      </c>
       <c r="C140" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D140" t="s">
         <v>7</v>
       </c>
       <c r="E140" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F140">
         <v>600017408</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" hidden="1">
       <c r="A141" t="s">
+        <v>149</v>
+      </c>
+      <c r="B141" t="s">
         <v>150</v>
       </c>
-      <c r="B141" t="s">
-        <v>151</v>
-      </c>
       <c r="C141" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D141" t="s">
         <v>7</v>
       </c>
       <c r="E141" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F141">
         <v>600017407</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" hidden="1">
       <c r="A142" t="s">
+        <v>149</v>
+      </c>
+      <c r="B142" t="s">
         <v>150</v>
       </c>
-      <c r="B142" t="s">
-        <v>151</v>
-      </c>
       <c r="C142" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D142" t="s">
         <v>7</v>
       </c>
       <c r="E142" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F142">
         <v>103721215</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" hidden="1">
       <c r="A143" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143" t="s">
         <v>150</v>
       </c>
-      <c r="B143" t="s">
-        <v>151</v>
-      </c>
       <c r="C143" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D143" t="s">
         <v>7</v>
       </c>
       <c r="E143" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F143">
         <v>600017406</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" hidden="1">
       <c r="A144" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144" t="s">
         <v>150</v>
       </c>
-      <c r="B144" t="s">
-        <v>151</v>
-      </c>
       <c r="C144" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D144" t="s">
         <v>7</v>
       </c>
       <c r="E144" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F144">
         <v>646949532</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" hidden="1">
       <c r="A145" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B145" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C145" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D145" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E145" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F145">
         <v>102461581</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" hidden="1">
       <c r="A146" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C146" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D146" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E146" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F146">
         <v>102461577</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" hidden="1">
       <c r="A147" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C147" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D147" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E147" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F147">
         <v>123999590</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" hidden="1">
       <c r="A148" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D148" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E148" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F148">
         <v>102461575</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" hidden="1">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D149" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E149" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F149">
         <v>120278555</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" hidden="1">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D150" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E150" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F150">
         <v>102461579</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" hidden="1">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C151" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D151" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E151" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F151">
         <v>102461576</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" hidden="1">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D152" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E152" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F152">
         <v>102461580</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" hidden="1">
       <c r="A153" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B153" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C153" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D153" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E153" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F153">
         <v>123996226</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" hidden="1">
       <c r="A154" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B154" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C154" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D154" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E154" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F154">
         <v>123998119</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" hidden="1">
       <c r="A155" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B155" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C155" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D155" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E155" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F155">
         <v>123997670</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" hidden="1">
       <c r="A156" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B156" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C156" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D156" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E156" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F156">
         <v>615596524</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" hidden="1">
       <c r="A157" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B157" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C157" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D157" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E157" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F157">
         <v>781978185</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" hidden="1">
       <c r="A158" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B158" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C158" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D158" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E158" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F158">
         <v>615596523</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" hidden="1">
       <c r="A159" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B159" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C159" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D159" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E159" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F159">
         <v>10092120760</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" hidden="1">
       <c r="A160" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B160" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C160" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D160" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E160" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F160">
         <v>10092120759</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" hidden="1">
       <c r="A161" t="s">
+        <v>140</v>
+      </c>
+      <c r="B161" t="s">
         <v>141</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>142</v>
       </c>
-      <c r="C161" t="s">
-        <v>143</v>
-      </c>
       <c r="D161" t="s">
         <v>13</v>
       </c>
       <c r="E161" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F161">
         <v>533747959004</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" hidden="1">
       <c r="A162" t="s">
+        <v>140</v>
+      </c>
+      <c r="B162" t="s">
         <v>141</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>142</v>
       </c>
-      <c r="C162" t="s">
-        <v>143</v>
-      </c>
       <c r="D162" t="s">
         <v>13</v>
       </c>
       <c r="E162" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F162">
         <v>533065312599</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" hidden="1">
       <c r="A163" t="s">
+        <v>140</v>
+      </c>
+      <c r="B163" t="s">
         <v>141</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>142</v>
       </c>
-      <c r="C163" t="s">
-        <v>143</v>
-      </c>
       <c r="D163" t="s">
         <v>13</v>
       </c>
       <c r="E163" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F163">
         <v>44095998966</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" hidden="1">
       <c r="A164" t="s">
+        <v>140</v>
+      </c>
+      <c r="B164" t="s">
         <v>141</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>142</v>
       </c>
-      <c r="C164" t="s">
-        <v>143</v>
-      </c>
       <c r="D164" t="s">
         <v>13</v>
       </c>
       <c r="E164" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F164">
         <v>528373077759</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" hidden="1">
       <c r="A165" t="s">
+        <v>140</v>
+      </c>
+      <c r="B165" t="s">
         <v>141</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>142</v>
       </c>
-      <c r="C165" t="s">
-        <v>143</v>
-      </c>
       <c r="D165" t="s">
         <v>13</v>
       </c>
       <c r="E165" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F165" s="1">
         <v>532732517162</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" hidden="1">
       <c r="A166" t="s">
+        <v>140</v>
+      </c>
+      <c r="B166" t="s">
         <v>141</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>142</v>
       </c>
-      <c r="C166" t="s">
-        <v>143</v>
-      </c>
       <c r="D166" t="s">
         <v>13</v>
       </c>
       <c r="E166" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F166">
         <v>40337418469</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" hidden="1">
       <c r="A167" t="s">
+        <v>140</v>
+      </c>
+      <c r="B167" t="s">
         <v>141</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>142</v>
       </c>
-      <c r="C167" t="s">
-        <v>143</v>
-      </c>
       <c r="D167" t="s">
         <v>13</v>
       </c>
       <c r="E167" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F167" s="1">
         <v>536331066559</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" hidden="1">
       <c r="A168" t="s">
+        <v>140</v>
+      </c>
+      <c r="B168" t="s">
         <v>141</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>142</v>
       </c>
-      <c r="C168" t="s">
-        <v>143</v>
-      </c>
       <c r="D168" t="s">
         <v>13</v>
       </c>
       <c r="E168" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F168" s="1">
         <v>565044224463</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" hidden="1">
       <c r="A169" t="s">
+        <v>140</v>
+      </c>
+      <c r="B169" t="s">
         <v>141</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>142</v>
       </c>
-      <c r="C169" t="s">
-        <v>143</v>
-      </c>
       <c r="D169" t="s">
         <v>13</v>
       </c>
       <c r="E169" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F169">
         <v>23477636937</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" hidden="1">
       <c r="A170" t="s">
+        <v>140</v>
+      </c>
+      <c r="B170" t="s">
         <v>141</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>142</v>
       </c>
-      <c r="C170" t="s">
-        <v>143</v>
-      </c>
       <c r="D170" t="s">
         <v>13</v>
       </c>
       <c r="E170" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F170">
         <v>43961411815</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" hidden="1">
       <c r="A171" t="s">
+        <v>140</v>
+      </c>
+      <c r="B171" t="s">
         <v>141</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C171" t="s">
         <v>142</v>
       </c>
-      <c r="C171" t="s">
-        <v>143</v>
-      </c>
       <c r="D171" t="s">
         <v>13</v>
       </c>
       <c r="E171" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F171">
         <v>36130973835</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" hidden="1">
       <c r="A172" t="s">
+        <v>140</v>
+      </c>
+      <c r="B172" t="s">
         <v>141</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>142</v>
       </c>
-      <c r="C172" t="s">
-        <v>143</v>
-      </c>
       <c r="D172" t="s">
         <v>13</v>
       </c>
       <c r="E172" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F172">
         <v>524641291671</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" hidden="1">
       <c r="A173" t="s">
+        <v>140</v>
+      </c>
+      <c r="B173" t="s">
         <v>141</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>142</v>
       </c>
-      <c r="C173" t="s">
-        <v>143</v>
-      </c>
       <c r="D173" t="s">
         <v>13</v>
       </c>
       <c r="E173" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F173">
         <v>23471120077</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" hidden="1">
       <c r="A174" t="s">
+        <v>140</v>
+      </c>
+      <c r="B174" t="s">
         <v>141</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>142</v>
       </c>
-      <c r="C174" t="s">
-        <v>143</v>
-      </c>
       <c r="D174" t="s">
         <v>13</v>
       </c>
       <c r="E174" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F174">
         <v>17648438926</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" hidden="1">
       <c r="A175" t="s">
+        <v>140</v>
+      </c>
+      <c r="B175" t="s">
         <v>141</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>142</v>
       </c>
-      <c r="C175" t="s">
-        <v>143</v>
-      </c>
       <c r="D175" t="s">
         <v>13</v>
       </c>
       <c r="E175" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F175">
         <v>17648538736</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" hidden="1">
       <c r="A176" t="s">
+        <v>140</v>
+      </c>
+      <c r="B176" t="s">
         <v>141</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>142</v>
       </c>
-      <c r="C176" t="s">
-        <v>143</v>
-      </c>
       <c r="D176" t="s">
         <v>13</v>
       </c>
       <c r="E176" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F176">
         <v>19480427581</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" hidden="1">
       <c r="A177" t="s">
+        <v>140</v>
+      </c>
+      <c r="B177" t="s">
         <v>141</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
         <v>142</v>
       </c>
-      <c r="C177" t="s">
-        <v>143</v>
-      </c>
       <c r="D177" t="s">
         <v>13</v>
       </c>
       <c r="E177" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F177" s="1">
         <v>529720140223</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" hidden="1">
       <c r="A178" t="s">
+        <v>140</v>
+      </c>
+      <c r="B178" t="s">
         <v>141</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" t="s">
         <v>142</v>
       </c>
-      <c r="C178" t="s">
-        <v>143</v>
-      </c>
       <c r="D178" t="s">
         <v>13</v>
       </c>
       <c r="E178" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F178">
         <v>41205514458</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" hidden="1">
       <c r="A179" t="s">
+        <v>140</v>
+      </c>
+      <c r="B179" t="s">
         <v>141</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
         <v>142</v>
       </c>
-      <c r="C179" t="s">
-        <v>143</v>
-      </c>
       <c r="D179" t="s">
         <v>13</v>
       </c>
       <c r="E179" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F179">
         <v>41189695491</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" hidden="1">
       <c r="A180" t="s">
+        <v>140</v>
+      </c>
+      <c r="B180" t="s">
         <v>141</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>142</v>
       </c>
-      <c r="C180" t="s">
-        <v>143</v>
-      </c>
       <c r="D180" t="s">
         <v>13</v>
       </c>
       <c r="E180" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F180">
         <v>36130743621</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" hidden="1">
       <c r="A181" t="s">
+        <v>140</v>
+      </c>
+      <c r="B181" t="s">
         <v>141</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>142</v>
       </c>
-      <c r="C181" t="s">
-        <v>143</v>
-      </c>
       <c r="D181" t="s">
         <v>13</v>
       </c>
       <c r="E181" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F181" s="1">
         <v>558429345561</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" hidden="1">
       <c r="A182" t="s">
+        <v>140</v>
+      </c>
+      <c r="B182" t="s">
         <v>141</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>142</v>
       </c>
-      <c r="C182" t="s">
-        <v>143</v>
-      </c>
       <c r="D182" t="s">
         <v>13</v>
       </c>
       <c r="E182" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F182">
         <v>565504541187</v>
@@ -5210,19 +5211,19 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
+        <v>140</v>
+      </c>
+      <c r="B183" t="s">
         <v>141</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
         <v>142</v>
       </c>
-      <c r="C183" t="s">
-        <v>143</v>
-      </c>
       <c r="D183" t="s">
-        <v>27</v>
+        <v>394</v>
       </c>
       <c r="E183" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F183">
         <v>18144234148</v>
@@ -5230,19 +5231,19 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
+        <v>140</v>
+      </c>
+      <c r="B184" t="s">
         <v>141</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>142</v>
       </c>
-      <c r="C184" t="s">
-        <v>143</v>
-      </c>
       <c r="D184" t="s">
-        <v>27</v>
+        <v>394</v>
       </c>
       <c r="E184" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F184">
         <v>540059989502</v>
@@ -5250,19 +5251,19 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
+        <v>140</v>
+      </c>
+      <c r="B185" t="s">
         <v>141</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>142</v>
       </c>
-      <c r="C185" t="s">
-        <v>143</v>
-      </c>
       <c r="D185" t="s">
-        <v>27</v>
+        <v>394</v>
       </c>
       <c r="E185" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F185">
         <v>547277581624</v>
@@ -5270,1419 +5271,1419 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
+        <v>140</v>
+      </c>
+      <c r="B186" t="s">
         <v>141</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>142</v>
       </c>
-      <c r="C186" t="s">
-        <v>143</v>
-      </c>
       <c r="D186" t="s">
-        <v>27</v>
+        <v>394</v>
       </c>
       <c r="E186" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F186">
         <v>39244054131</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" hidden="1">
       <c r="A187" t="s">
+        <v>140</v>
+      </c>
+      <c r="B187" t="s">
         <v>141</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>142</v>
-      </c>
-      <c r="C187" t="s">
-        <v>143</v>
       </c>
       <c r="D187" t="s">
         <v>7</v>
       </c>
       <c r="E187" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F187">
         <v>545616955328</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" hidden="1">
       <c r="A188" t="s">
+        <v>140</v>
+      </c>
+      <c r="B188" t="s">
         <v>141</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
         <v>142</v>
-      </c>
-      <c r="C188" t="s">
-        <v>143</v>
       </c>
       <c r="D188" t="s">
         <v>7</v>
       </c>
       <c r="E188" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F188">
         <v>36984529022</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" hidden="1">
       <c r="A189" t="s">
+        <v>140</v>
+      </c>
+      <c r="B189" t="s">
         <v>141</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>142</v>
-      </c>
-      <c r="C189" t="s">
-        <v>143</v>
       </c>
       <c r="D189" t="s">
         <v>7</v>
       </c>
       <c r="E189" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F189">
         <v>23464208294</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" hidden="1">
       <c r="A190" t="s">
+        <v>140</v>
+      </c>
+      <c r="B190" t="s">
         <v>141</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>142</v>
-      </c>
-      <c r="C190" t="s">
-        <v>143</v>
       </c>
       <c r="D190" t="s">
         <v>7</v>
       </c>
       <c r="E190" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F190">
         <v>44104247673</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" hidden="1">
       <c r="A191" t="s">
+        <v>140</v>
+      </c>
+      <c r="B191" t="s">
         <v>141</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>142</v>
-      </c>
-      <c r="C191" t="s">
-        <v>143</v>
       </c>
       <c r="D191" t="s">
         <v>7</v>
       </c>
       <c r="E191" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F191">
         <v>556392094755</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" hidden="1">
       <c r="A192" t="s">
+        <v>140</v>
+      </c>
+      <c r="B192" t="s">
         <v>141</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
         <v>142</v>
-      </c>
-      <c r="C192" t="s">
-        <v>143</v>
       </c>
       <c r="D192" t="s">
         <v>7</v>
       </c>
       <c r="E192" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F192">
         <v>39234283947</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" hidden="1">
       <c r="A193" t="s">
+        <v>140</v>
+      </c>
+      <c r="B193" t="s">
         <v>141</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
         <v>142</v>
-      </c>
-      <c r="C193" t="s">
-        <v>143</v>
       </c>
       <c r="D193" t="s">
         <v>7</v>
       </c>
       <c r="E193" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F193">
         <v>545589366243</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" hidden="1">
       <c r="A194" t="s">
+        <v>140</v>
+      </c>
+      <c r="B194" t="s">
         <v>141</v>
       </c>
-      <c r="B194" t="s">
+      <c r="C194" t="s">
         <v>142</v>
       </c>
-      <c r="C194" t="s">
-        <v>143</v>
-      </c>
       <c r="D194" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E194" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F194">
         <v>545135822523</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" hidden="1">
       <c r="A195" t="s">
+        <v>140</v>
+      </c>
+      <c r="B195" t="s">
         <v>141</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C195" t="s">
         <v>142</v>
       </c>
-      <c r="C195" t="s">
-        <v>143</v>
-      </c>
       <c r="D195" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E195" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F195">
         <v>544372646926</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" hidden="1">
       <c r="A196" t="s">
+        <v>140</v>
+      </c>
+      <c r="B196" t="s">
         <v>141</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" t="s">
         <v>142</v>
       </c>
-      <c r="C196" t="s">
-        <v>143</v>
-      </c>
       <c r="D196" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E196" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F196">
         <v>553967190432</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" hidden="1">
       <c r="A197" t="s">
+        <v>140</v>
+      </c>
+      <c r="B197" t="s">
         <v>141</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C197" t="s">
         <v>142</v>
       </c>
-      <c r="C197" t="s">
-        <v>143</v>
-      </c>
       <c r="D197" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E197" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F197">
         <v>539966275589</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" hidden="1">
       <c r="A198" t="s">
+        <v>140</v>
+      </c>
+      <c r="B198" t="s">
         <v>141</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C198" t="s">
         <v>142</v>
       </c>
-      <c r="C198" t="s">
-        <v>143</v>
-      </c>
       <c r="D198" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E198" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F198">
         <v>539963816913</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" hidden="1">
       <c r="A199" t="s">
+        <v>140</v>
+      </c>
+      <c r="B199" t="s">
         <v>141</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" t="s">
         <v>142</v>
       </c>
-      <c r="C199" t="s">
-        <v>143</v>
-      </c>
       <c r="D199" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E199" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F199">
         <v>544338112849</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" hidden="1">
       <c r="A200" t="s">
+        <v>140</v>
+      </c>
+      <c r="B200" t="s">
         <v>141</v>
       </c>
-      <c r="B200" t="s">
+      <c r="C200" t="s">
         <v>142</v>
       </c>
-      <c r="C200" t="s">
-        <v>143</v>
-      </c>
       <c r="D200" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E200" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F200">
         <v>539966158037</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" hidden="1">
       <c r="A201" t="s">
+        <v>140</v>
+      </c>
+      <c r="B201" t="s">
         <v>141</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C201" t="s">
         <v>142</v>
       </c>
-      <c r="C201" t="s">
-        <v>143</v>
-      </c>
       <c r="D201" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E201" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F201">
         <v>544438110640</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" hidden="1">
       <c r="A202" t="s">
+        <v>140</v>
+      </c>
+      <c r="B202" t="s">
         <v>141</v>
       </c>
-      <c r="B202" t="s">
+      <c r="C202" t="s">
         <v>142</v>
       </c>
-      <c r="C202" t="s">
-        <v>143</v>
-      </c>
       <c r="D202" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E202" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F202">
         <v>539419425366</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" hidden="1">
       <c r="A203" t="s">
+        <v>140</v>
+      </c>
+      <c r="B203" t="s">
         <v>141</v>
       </c>
-      <c r="B203" t="s">
+      <c r="C203" t="s">
         <v>142</v>
       </c>
-      <c r="C203" t="s">
-        <v>143</v>
-      </c>
       <c r="D203" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E203" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F203">
         <v>544390975563</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" hidden="1">
       <c r="A204" t="s">
+        <v>140</v>
+      </c>
+      <c r="B204" t="s">
         <v>141</v>
       </c>
-      <c r="B204" t="s">
+      <c r="C204" t="s">
         <v>142</v>
       </c>
-      <c r="C204" t="s">
-        <v>143</v>
-      </c>
       <c r="D204" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E204" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F204">
         <v>559308160657</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" hidden="1">
       <c r="A205" t="s">
+        <v>140</v>
+      </c>
+      <c r="B205" t="s">
         <v>141</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C205" t="s">
         <v>142</v>
       </c>
-      <c r="C205" t="s">
-        <v>143</v>
-      </c>
       <c r="D205" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E205" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F205">
         <v>540012314131</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" hidden="1">
       <c r="A206" t="s">
+        <v>140</v>
+      </c>
+      <c r="B206" t="s">
         <v>141</v>
       </c>
-      <c r="B206" t="s">
+      <c r="C206" t="s">
         <v>142</v>
       </c>
-      <c r="C206" t="s">
-        <v>143</v>
-      </c>
       <c r="D206" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E206" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F206">
         <v>554021827194</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" hidden="1">
       <c r="A207" t="s">
+        <v>140</v>
+      </c>
+      <c r="B207" t="s">
         <v>141</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
         <v>142</v>
       </c>
-      <c r="C207" t="s">
-        <v>143</v>
-      </c>
       <c r="D207" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E207" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F207">
         <v>545138770586</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" hidden="1">
       <c r="A208" t="s">
+        <v>140</v>
+      </c>
+      <c r="B208" t="s">
         <v>141</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C208" t="s">
         <v>142</v>
       </c>
-      <c r="C208" t="s">
-        <v>143</v>
-      </c>
       <c r="D208" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E208" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F208">
         <v>558957811614</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" hidden="1">
       <c r="A209" t="s">
+        <v>140</v>
+      </c>
+      <c r="B209" t="s">
         <v>141</v>
       </c>
-      <c r="B209" t="s">
+      <c r="C209" t="s">
         <v>142</v>
       </c>
-      <c r="C209" t="s">
-        <v>143</v>
-      </c>
       <c r="D209" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E209" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F209">
         <v>558902414522</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" hidden="1">
       <c r="A210" t="s">
+        <v>140</v>
+      </c>
+      <c r="B210" t="s">
         <v>141</v>
       </c>
-      <c r="B210" t="s">
+      <c r="C210" t="s">
         <v>142</v>
       </c>
-      <c r="C210" t="s">
-        <v>143</v>
-      </c>
       <c r="D210" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E210" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F210">
         <v>539968095876</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" hidden="1">
       <c r="A211" t="s">
+        <v>140</v>
+      </c>
+      <c r="B211" t="s">
         <v>141</v>
       </c>
-      <c r="B211" t="s">
+      <c r="C211" t="s">
         <v>142</v>
       </c>
-      <c r="C211" t="s">
-        <v>143</v>
-      </c>
       <c r="D211" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E211" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F211">
         <v>553937549311</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" hidden="1">
       <c r="A212" t="s">
+        <v>140</v>
+      </c>
+      <c r="B212" t="s">
         <v>141</v>
       </c>
-      <c r="B212" t="s">
+      <c r="C212" t="s">
         <v>142</v>
       </c>
-      <c r="C212" t="s">
-        <v>143</v>
-      </c>
       <c r="D212" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E212" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F212">
         <v>539966316144</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" hidden="1">
       <c r="A213" t="s">
+        <v>140</v>
+      </c>
+      <c r="B213" t="s">
         <v>141</v>
       </c>
-      <c r="B213" t="s">
+      <c r="C213" t="s">
         <v>142</v>
       </c>
-      <c r="C213" t="s">
-        <v>143</v>
-      </c>
       <c r="D213" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E213" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F213">
         <v>543532688716</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" hidden="1">
       <c r="A214" t="s">
+        <v>140</v>
+      </c>
+      <c r="B214" t="s">
         <v>141</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" t="s">
         <v>142</v>
       </c>
-      <c r="C214" t="s">
-        <v>143</v>
-      </c>
       <c r="D214" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E214" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F214">
         <v>539962244112</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" hidden="1">
       <c r="A215" t="s">
+        <v>140</v>
+      </c>
+      <c r="B215" t="s">
         <v>141</v>
       </c>
-      <c r="B215" t="s">
+      <c r="C215" t="s">
         <v>142</v>
       </c>
-      <c r="C215" t="s">
-        <v>143</v>
-      </c>
       <c r="D215" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E215" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F215">
         <v>558950059549</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" hidden="1">
       <c r="A216" t="s">
+        <v>140</v>
+      </c>
+      <c r="B216" t="s">
         <v>141</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>142</v>
       </c>
-      <c r="C216" t="s">
-        <v>143</v>
-      </c>
       <c r="D216" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E216" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F216">
         <v>540012726331</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" hidden="1">
       <c r="A217" t="s">
+        <v>140</v>
+      </c>
+      <c r="B217" t="s">
         <v>141</v>
       </c>
-      <c r="B217" t="s">
+      <c r="C217" t="s">
         <v>142</v>
       </c>
-      <c r="C217" t="s">
-        <v>143</v>
-      </c>
       <c r="D217" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E217" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F217">
         <v>540013292848</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" hidden="1">
       <c r="A218" t="s">
+        <v>140</v>
+      </c>
+      <c r="B218" t="s">
         <v>141</v>
       </c>
-      <c r="B218" t="s">
+      <c r="C218" t="s">
         <v>142</v>
       </c>
-      <c r="C218" t="s">
-        <v>143</v>
-      </c>
       <c r="D218" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E218" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F218">
         <v>539966536274</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" hidden="1">
       <c r="A219" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B219" t="s">
+        <v>143</v>
+      </c>
+      <c r="C219" t="s">
         <v>144</v>
       </c>
-      <c r="C219" t="s">
-        <v>145</v>
-      </c>
       <c r="D219" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E219" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F219">
         <v>563487222700</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" hidden="1">
       <c r="A220" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B220" t="s">
+        <v>143</v>
+      </c>
+      <c r="C220" t="s">
         <v>144</v>
       </c>
-      <c r="C220" t="s">
-        <v>145</v>
-      </c>
       <c r="D220" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E220" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F220">
         <v>563418565011</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" hidden="1">
       <c r="A221" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B221" t="s">
+        <v>143</v>
+      </c>
+      <c r="C221" t="s">
         <v>144</v>
       </c>
-      <c r="C221" t="s">
-        <v>145</v>
-      </c>
       <c r="D221" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E221" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F221">
         <v>563431853815</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" hidden="1">
       <c r="A222" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B222" t="s">
+        <v>143</v>
+      </c>
+      <c r="C222" t="s">
         <v>144</v>
       </c>
-      <c r="C222" t="s">
-        <v>145</v>
-      </c>
       <c r="D222" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E222" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F222">
         <v>563420605298</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" hidden="1">
       <c r="A223" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B223" t="s">
+        <v>143</v>
+      </c>
+      <c r="C223" t="s">
         <v>144</v>
       </c>
-      <c r="C223" t="s">
-        <v>145</v>
-      </c>
       <c r="D223" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E223" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F223">
         <v>563419565674</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" hidden="1">
       <c r="A224" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B224" t="s">
+        <v>143</v>
+      </c>
+      <c r="C224" t="s">
         <v>144</v>
       </c>
-      <c r="C224" t="s">
-        <v>145</v>
-      </c>
       <c r="D224" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E224" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F224">
         <v>563316704583</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" hidden="1">
       <c r="A225" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B225" t="s">
+        <v>143</v>
+      </c>
+      <c r="C225" t="s">
         <v>144</v>
       </c>
-      <c r="C225" t="s">
-        <v>145</v>
-      </c>
       <c r="D225" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E225" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F225">
         <v>562946893247</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" hidden="1">
       <c r="A226" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B226" t="s">
+        <v>143</v>
+      </c>
+      <c r="C226" t="s">
         <v>144</v>
       </c>
-      <c r="C226" t="s">
-        <v>145</v>
-      </c>
       <c r="D226" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E226" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F226">
         <v>563420381333</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" hidden="1">
       <c r="A227" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B227" t="s">
+        <v>143</v>
+      </c>
+      <c r="C227" t="s">
         <v>144</v>
       </c>
-      <c r="C227" t="s">
-        <v>145</v>
-      </c>
       <c r="D227" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E227" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F227">
         <v>563419309173</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" hidden="1">
       <c r="A228" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B228" t="s">
+        <v>143</v>
+      </c>
+      <c r="C228" t="s">
         <v>144</v>
       </c>
-      <c r="C228" t="s">
-        <v>145</v>
-      </c>
       <c r="D228" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E228" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F228">
         <v>562845712326</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" hidden="1">
       <c r="A229" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B229" t="s">
+        <v>143</v>
+      </c>
+      <c r="C229" t="s">
         <v>144</v>
       </c>
-      <c r="C229" t="s">
-        <v>145</v>
-      </c>
       <c r="D229" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E229" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F229">
         <v>563090099989</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" hidden="1">
       <c r="A230" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B230" t="s">
+        <v>143</v>
+      </c>
+      <c r="C230" t="s">
         <v>144</v>
       </c>
-      <c r="C230" t="s">
-        <v>145</v>
-      </c>
       <c r="D230" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E230" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F230">
         <v>562947573029</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" hidden="1">
       <c r="A231" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B231" t="s">
+        <v>143</v>
+      </c>
+      <c r="C231" t="s">
         <v>144</v>
       </c>
-      <c r="C231" t="s">
-        <v>145</v>
-      </c>
       <c r="D231" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E231" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F231">
         <v>563035049517</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" hidden="1">
       <c r="A232" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B232" t="s">
+        <v>143</v>
+      </c>
+      <c r="C232" t="s">
         <v>144</v>
       </c>
-      <c r="C232" t="s">
-        <v>145</v>
-      </c>
       <c r="D232" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E232" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F232">
         <v>562933884245</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" hidden="1">
       <c r="A233" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B233" t="s">
+        <v>143</v>
+      </c>
+      <c r="C233" t="s">
         <v>144</v>
       </c>
-      <c r="C233" t="s">
-        <v>145</v>
-      </c>
       <c r="D233" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E233" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F233">
         <v>562830496721</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" hidden="1">
       <c r="A234" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B234" t="s">
+        <v>143</v>
+      </c>
+      <c r="C234" t="s">
         <v>144</v>
       </c>
-      <c r="C234" t="s">
-        <v>145</v>
-      </c>
       <c r="D234" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E234" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F234">
         <v>563087323512</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" hidden="1">
       <c r="A235" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B235" t="s">
+        <v>143</v>
+      </c>
+      <c r="C235" t="s">
         <v>144</v>
       </c>
-      <c r="C235" t="s">
-        <v>145</v>
-      </c>
       <c r="D235" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E235" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F235">
         <v>563008974246</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" hidden="1">
       <c r="A236" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B236" t="s">
+        <v>143</v>
+      </c>
+      <c r="C236" t="s">
         <v>144</v>
       </c>
-      <c r="C236" t="s">
-        <v>145</v>
-      </c>
       <c r="D236" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E236" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F236">
         <v>562945937147</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" hidden="1">
       <c r="A237" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B237" t="s">
+        <v>143</v>
+      </c>
+      <c r="C237" t="s">
         <v>144</v>
       </c>
-      <c r="C237" t="s">
-        <v>145</v>
-      </c>
       <c r="D237" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E237" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F237">
         <v>563088407802</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" hidden="1">
       <c r="A238" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B238" t="s">
+        <v>143</v>
+      </c>
+      <c r="C238" t="s">
         <v>144</v>
       </c>
-      <c r="C238" t="s">
-        <v>145</v>
-      </c>
       <c r="D238" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E238" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F238">
         <v>562846656174</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" hidden="1">
       <c r="A239" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B239" t="s">
+        <v>143</v>
+      </c>
+      <c r="C239" t="s">
         <v>144</v>
       </c>
-      <c r="C239" t="s">
-        <v>145</v>
-      </c>
       <c r="D239" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E239" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F239">
         <v>563037273548</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" hidden="1">
       <c r="A240" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B240" t="s">
+        <v>143</v>
+      </c>
+      <c r="C240" t="s">
         <v>144</v>
       </c>
-      <c r="C240" t="s">
-        <v>145</v>
-      </c>
       <c r="D240" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F240">
         <v>563414185487</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" hidden="1">
       <c r="A241" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B241" t="s">
+        <v>143</v>
+      </c>
+      <c r="C241" t="s">
         <v>144</v>
       </c>
-      <c r="C241" t="s">
-        <v>145</v>
-      </c>
       <c r="D241" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E241" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F241">
         <v>562960624385</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" hidden="1">
       <c r="A242" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B242" t="s">
+        <v>143</v>
+      </c>
+      <c r="C242" t="s">
         <v>144</v>
       </c>
-      <c r="C242" t="s">
-        <v>145</v>
-      </c>
       <c r="D242" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E242" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F242">
         <v>563494735279</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" hidden="1">
       <c r="A243" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B243" t="s">
+        <v>143</v>
+      </c>
+      <c r="C243" t="s">
         <v>144</v>
       </c>
-      <c r="C243" t="s">
-        <v>145</v>
-      </c>
       <c r="D243" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E243" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F243">
         <v>563129262930</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" hidden="1">
       <c r="A244" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B244" t="s">
+        <v>143</v>
+      </c>
+      <c r="C244" t="s">
         <v>144</v>
       </c>
-      <c r="C244" t="s">
-        <v>145</v>
-      </c>
       <c r="D244" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E244" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F244">
         <v>563248300822</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" hidden="1">
       <c r="A245" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B245" t="s">
+        <v>143</v>
+      </c>
+      <c r="C245" t="s">
         <v>144</v>
       </c>
-      <c r="C245" t="s">
-        <v>145</v>
-      </c>
       <c r="D245" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E245" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F245">
         <v>563248560489</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" hidden="1">
       <c r="A246" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B246" t="s">
+        <v>143</v>
+      </c>
+      <c r="C246" t="s">
         <v>144</v>
       </c>
-      <c r="C246" t="s">
-        <v>145</v>
-      </c>
       <c r="D246" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E246" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F246">
         <v>563350305418</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" hidden="1">
       <c r="A247" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B247" t="s">
+        <v>143</v>
+      </c>
+      <c r="C247" t="s">
         <v>144</v>
       </c>
-      <c r="C247" t="s">
-        <v>145</v>
-      </c>
       <c r="D247" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E247" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F247">
         <v>563348701369</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" hidden="1">
       <c r="A248" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B248" t="s">
+        <v>143</v>
+      </c>
+      <c r="C248" t="s">
         <v>144</v>
       </c>
-      <c r="C248" t="s">
-        <v>145</v>
-      </c>
       <c r="D248" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E248" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F248">
         <v>563351157118</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" hidden="1">
       <c r="A249" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B249" t="s">
+        <v>143</v>
+      </c>
+      <c r="C249" t="s">
         <v>144</v>
       </c>
-      <c r="C249" t="s">
-        <v>145</v>
-      </c>
       <c r="D249" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E249" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F249">
         <v>563063461843</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" hidden="1">
       <c r="A250" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B250" t="s">
+        <v>143</v>
+      </c>
+      <c r="C250" t="s">
         <v>144</v>
       </c>
-      <c r="C250" t="s">
-        <v>145</v>
-      </c>
       <c r="D250" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E250" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F250">
         <v>563498754207</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" hidden="1">
       <c r="A251" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B251" t="s">
+        <v>143</v>
+      </c>
+      <c r="C251" t="s">
         <v>144</v>
       </c>
-      <c r="C251" t="s">
-        <v>145</v>
-      </c>
       <c r="D251" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E251" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F251">
         <v>563328456991</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" hidden="1">
       <c r="A252" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B252" t="s">
+        <v>143</v>
+      </c>
+      <c r="C252" t="s">
         <v>144</v>
       </c>
-      <c r="C252" t="s">
-        <v>145</v>
-      </c>
       <c r="D252" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E252" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F252">
         <v>563496502556</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" hidden="1">
       <c r="A253" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B253" t="s">
+        <v>143</v>
+      </c>
+      <c r="C253" t="s">
         <v>144</v>
       </c>
-      <c r="C253" t="s">
-        <v>145</v>
-      </c>
       <c r="D253" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E253" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F253">
         <v>564994852144</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" hidden="1">
       <c r="A254" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B254" t="s">
+        <v>143</v>
+      </c>
+      <c r="C254" t="s">
         <v>144</v>
       </c>
-      <c r="C254" t="s">
-        <v>145</v>
-      </c>
       <c r="D254" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E254" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F254">
         <v>563071053907</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" hidden="1">
       <c r="A255" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B255" t="s">
+        <v>143</v>
+      </c>
+      <c r="C255" t="s">
         <v>144</v>
       </c>
-      <c r="C255" t="s">
-        <v>145</v>
-      </c>
       <c r="D255" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E255" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F255">
         <v>563408758794</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" hidden="1">
       <c r="A256" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B256" t="s">
+        <v>143</v>
+      </c>
+      <c r="C256" t="s">
         <v>144</v>
       </c>
-      <c r="C256" t="s">
-        <v>145</v>
-      </c>
       <c r="D256" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E256" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F256">
         <v>563561819160</v>
@@ -6690,19 +6691,19 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B257" t="s">
+        <v>145</v>
+      </c>
+      <c r="C257" t="s">
         <v>146</v>
       </c>
-      <c r="C257" t="s">
-        <v>147</v>
-      </c>
       <c r="D257" t="s">
-        <v>27</v>
+        <v>394</v>
       </c>
       <c r="E257" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F257">
         <v>523026121941</v>
@@ -6710,979 +6711,979 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B258" t="s">
+        <v>145</v>
+      </c>
+      <c r="C258" t="s">
         <v>146</v>
       </c>
-      <c r="C258" t="s">
-        <v>147</v>
-      </c>
       <c r="D258" t="s">
-        <v>27</v>
+        <v>394</v>
       </c>
       <c r="E258" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F258">
         <v>523000703198</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" hidden="1">
       <c r="A259" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B259" t="s">
+        <v>145</v>
+      </c>
+      <c r="C259" t="s">
         <v>146</v>
-      </c>
-      <c r="C259" t="s">
-        <v>147</v>
       </c>
       <c r="D259" t="s">
         <v>7</v>
       </c>
       <c r="E259" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F259">
         <v>556308588016</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" hidden="1">
       <c r="A260" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B260" t="s">
+        <v>145</v>
+      </c>
+      <c r="C260" t="s">
         <v>146</v>
       </c>
-      <c r="C260" t="s">
-        <v>147</v>
-      </c>
       <c r="D260" t="s">
         <v>13</v>
       </c>
       <c r="E260" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F260">
         <v>550045667246</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" hidden="1">
       <c r="A261" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B261" t="s">
+        <v>145</v>
+      </c>
+      <c r="C261" t="s">
         <v>146</v>
-      </c>
-      <c r="C261" t="s">
-        <v>147</v>
       </c>
       <c r="D261" t="s">
         <v>7</v>
       </c>
       <c r="E261" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F261">
         <v>550571692826</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" hidden="1">
       <c r="A262" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B262" t="s">
+        <v>145</v>
+      </c>
+      <c r="C262" t="s">
         <v>146</v>
-      </c>
-      <c r="C262" t="s">
-        <v>147</v>
       </c>
       <c r="D262" t="s">
         <v>7</v>
       </c>
       <c r="E262" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F262">
         <v>551519582578</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" hidden="1">
       <c r="A263" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B263" t="s">
+        <v>145</v>
+      </c>
+      <c r="C263" t="s">
         <v>146</v>
-      </c>
-      <c r="C263" t="s">
-        <v>147</v>
       </c>
       <c r="D263" t="s">
         <v>7</v>
       </c>
       <c r="E263" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F263">
         <v>550041691914</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" hidden="1">
       <c r="A264" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B264" t="s">
+        <v>145</v>
+      </c>
+      <c r="C264" t="s">
         <v>146</v>
-      </c>
-      <c r="C264" t="s">
-        <v>147</v>
       </c>
       <c r="D264" t="s">
         <v>7</v>
       </c>
       <c r="E264" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F264">
         <v>549566966809</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" hidden="1">
       <c r="A265" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B265" t="s">
+        <v>145</v>
+      </c>
+      <c r="C265" t="s">
         <v>146</v>
-      </c>
-      <c r="C265" t="s">
-        <v>147</v>
       </c>
       <c r="D265" t="s">
         <v>7</v>
       </c>
       <c r="E265" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F265">
         <v>564878985450</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" hidden="1">
       <c r="A266" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B266" t="s">
+        <v>145</v>
+      </c>
+      <c r="C266" t="s">
         <v>146</v>
-      </c>
-      <c r="C266" t="s">
-        <v>147</v>
       </c>
       <c r="D266" t="s">
         <v>7</v>
       </c>
       <c r="E266" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F266">
         <v>560617745513</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" hidden="1">
       <c r="A267" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B267" t="s">
+        <v>145</v>
+      </c>
+      <c r="C267" t="s">
         <v>146</v>
       </c>
-      <c r="C267" t="s">
-        <v>147</v>
-      </c>
       <c r="D267" t="s">
         <v>13</v>
       </c>
       <c r="E267" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F267">
         <v>551439604956</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" hidden="1">
       <c r="A268" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B268" t="s">
+        <v>145</v>
+      </c>
+      <c r="C268" t="s">
         <v>146</v>
       </c>
-      <c r="C268" t="s">
-        <v>147</v>
-      </c>
       <c r="D268" t="s">
         <v>13</v>
       </c>
       <c r="E268" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F268">
         <v>558695572405</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" hidden="1">
       <c r="A269" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B269" t="s">
+        <v>145</v>
+      </c>
+      <c r="C269" t="s">
         <v>146</v>
       </c>
-      <c r="C269" t="s">
-        <v>147</v>
-      </c>
       <c r="D269" t="s">
         <v>13</v>
       </c>
       <c r="E269" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F269">
         <v>550015274487</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" hidden="1">
       <c r="A270" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B270" t="s">
+        <v>145</v>
+      </c>
+      <c r="C270" t="s">
         <v>146</v>
       </c>
-      <c r="C270" t="s">
-        <v>147</v>
-      </c>
       <c r="D270" t="s">
         <v>13</v>
       </c>
       <c r="E270" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F270">
         <v>549985973065</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" hidden="1">
       <c r="A271" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B271" t="s">
+        <v>145</v>
+      </c>
+      <c r="C271" t="s">
         <v>146</v>
       </c>
-      <c r="C271" t="s">
-        <v>147</v>
-      </c>
       <c r="D271" t="s">
         <v>13</v>
       </c>
       <c r="E271" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F271">
         <v>551438024077</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" hidden="1">
       <c r="A272" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B272" t="s">
+        <v>145</v>
+      </c>
+      <c r="C272" t="s">
         <v>146</v>
       </c>
-      <c r="C272" t="s">
-        <v>147</v>
-      </c>
       <c r="D272" t="s">
         <v>13</v>
       </c>
       <c r="E272" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F272">
         <v>549940276744</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" hidden="1">
       <c r="A273" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B273" t="s">
+        <v>145</v>
+      </c>
+      <c r="C273" t="s">
         <v>146</v>
       </c>
-      <c r="C273" t="s">
-        <v>147</v>
-      </c>
       <c r="D273" t="s">
         <v>13</v>
       </c>
       <c r="E273" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F273">
         <v>549989801514</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" hidden="1">
       <c r="A274" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B274" t="s">
+        <v>145</v>
+      </c>
+      <c r="C274" t="s">
         <v>146</v>
       </c>
-      <c r="C274" t="s">
-        <v>147</v>
-      </c>
       <c r="D274" t="s">
         <v>13</v>
       </c>
       <c r="E274" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F274">
         <v>522867607321</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" hidden="1">
       <c r="A275" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B275" t="s">
+        <v>145</v>
+      </c>
+      <c r="C275" t="s">
         <v>146</v>
       </c>
-      <c r="C275" t="s">
-        <v>147</v>
-      </c>
       <c r="D275" t="s">
         <v>13</v>
       </c>
       <c r="E275" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F275">
         <v>550050763816</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" hidden="1">
       <c r="A276" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B276" t="s">
+        <v>145</v>
+      </c>
+      <c r="C276" t="s">
         <v>146</v>
       </c>
-      <c r="C276" t="s">
-        <v>147</v>
-      </c>
       <c r="D276" t="s">
         <v>13</v>
       </c>
       <c r="E276" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F276">
         <v>551525442096</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" hidden="1">
       <c r="A277" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B277" t="s">
+        <v>145</v>
+      </c>
+      <c r="C277" t="s">
         <v>146</v>
       </c>
-      <c r="C277" t="s">
-        <v>147</v>
-      </c>
       <c r="D277" t="s">
         <v>13</v>
       </c>
       <c r="E277" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F277">
         <v>523244710373</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" hidden="1">
       <c r="A278" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B278" t="s">
+        <v>145</v>
+      </c>
+      <c r="C278" t="s">
         <v>146</v>
       </c>
-      <c r="C278" t="s">
-        <v>147</v>
-      </c>
       <c r="D278" t="s">
         <v>13</v>
       </c>
       <c r="E278" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F278">
         <v>551439040418</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" hidden="1">
       <c r="A279" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B279" t="s">
+        <v>145</v>
+      </c>
+      <c r="C279" t="s">
         <v>146</v>
       </c>
-      <c r="C279" t="s">
-        <v>147</v>
-      </c>
       <c r="D279" t="s">
         <v>13</v>
       </c>
       <c r="E279" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F279">
         <v>549935960334</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" hidden="1">
       <c r="A280" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B280" t="s">
+        <v>145</v>
+      </c>
+      <c r="C280" t="s">
         <v>146</v>
       </c>
-      <c r="C280" t="s">
-        <v>147</v>
-      </c>
       <c r="D280" t="s">
         <v>13</v>
       </c>
       <c r="E280" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F280">
         <v>550049775672</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" hidden="1">
       <c r="A281" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B281" t="s">
+        <v>145</v>
+      </c>
+      <c r="C281" t="s">
         <v>146</v>
       </c>
-      <c r="C281" t="s">
-        <v>147</v>
-      </c>
       <c r="D281" t="s">
         <v>13</v>
       </c>
       <c r="E281" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F281">
         <v>549991133910</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" hidden="1">
       <c r="A282" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B282" t="s">
+        <v>145</v>
+      </c>
+      <c r="C282" t="s">
         <v>146</v>
       </c>
-      <c r="C282" t="s">
-        <v>147</v>
-      </c>
       <c r="D282" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E282" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F282">
         <v>558939033824</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" hidden="1">
       <c r="A283" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B283" t="s">
+        <v>145</v>
+      </c>
+      <c r="C283" t="s">
         <v>146</v>
       </c>
-      <c r="C283" t="s">
-        <v>147</v>
-      </c>
       <c r="D283" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E283" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F283">
         <v>559058855691</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" hidden="1">
       <c r="A284" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B284" t="s">
+        <v>145</v>
+      </c>
+      <c r="C284" t="s">
         <v>146</v>
       </c>
-      <c r="C284" t="s">
-        <v>147</v>
-      </c>
       <c r="D284" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E284" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F284">
         <v>538168745647</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" hidden="1">
       <c r="A285" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B285" t="s">
+        <v>145</v>
+      </c>
+      <c r="C285" t="s">
         <v>146</v>
       </c>
-      <c r="C285" t="s">
-        <v>147</v>
-      </c>
       <c r="D285" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E285" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F285">
         <v>559060107295</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" hidden="1">
       <c r="A286" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B286" t="s">
+        <v>145</v>
+      </c>
+      <c r="C286" t="s">
         <v>146</v>
       </c>
-      <c r="C286" t="s">
-        <v>147</v>
-      </c>
       <c r="D286" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E286" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F286">
         <v>559061067475</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" hidden="1">
       <c r="A287" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B287" t="s">
+        <v>145</v>
+      </c>
+      <c r="C287" t="s">
         <v>146</v>
       </c>
-      <c r="C287" t="s">
-        <v>147</v>
-      </c>
       <c r="D287" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E287" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F287">
         <v>559057139342</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" hidden="1">
       <c r="A288" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B288" t="s">
+        <v>145</v>
+      </c>
+      <c r="C288" t="s">
         <v>146</v>
       </c>
-      <c r="C288" t="s">
-        <v>147</v>
-      </c>
       <c r="D288" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E288" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F288">
         <v>535979879291</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" hidden="1">
       <c r="A289" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B289" t="s">
+        <v>145</v>
+      </c>
+      <c r="C289" t="s">
         <v>146</v>
       </c>
-      <c r="C289" t="s">
-        <v>147</v>
-      </c>
       <c r="D289" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E289" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F289">
         <v>558927787922</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" hidden="1">
       <c r="A290" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B290" t="s">
+        <v>145</v>
+      </c>
+      <c r="C290" t="s">
         <v>146</v>
       </c>
-      <c r="C290" t="s">
-        <v>147</v>
-      </c>
       <c r="D290" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E290" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F290">
         <v>558863744021</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" hidden="1">
       <c r="A291" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B291" t="s">
+        <v>145</v>
+      </c>
+      <c r="C291" t="s">
         <v>146</v>
       </c>
-      <c r="C291" t="s">
-        <v>147</v>
-      </c>
       <c r="D291" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E291" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F291">
         <v>538049955864</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" hidden="1">
       <c r="A292" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B292" t="s">
+        <v>145</v>
+      </c>
+      <c r="C292" t="s">
         <v>146</v>
       </c>
-      <c r="C292" t="s">
-        <v>147</v>
-      </c>
       <c r="D292" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E292" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F292">
         <v>559072843540</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" hidden="1">
       <c r="A293" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B293" t="s">
+        <v>145</v>
+      </c>
+      <c r="C293" t="s">
         <v>146</v>
       </c>
-      <c r="C293" t="s">
-        <v>147</v>
-      </c>
       <c r="D293" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E293" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F293">
         <v>560240862759</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" hidden="1">
       <c r="A294" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B294" t="s">
+        <v>145</v>
+      </c>
+      <c r="C294" t="s">
         <v>146</v>
       </c>
-      <c r="C294" t="s">
-        <v>147</v>
-      </c>
       <c r="D294" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E294" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F294">
         <v>536050582491</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" hidden="1">
       <c r="A295" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B295" t="s">
+        <v>145</v>
+      </c>
+      <c r="C295" t="s">
         <v>146</v>
       </c>
-      <c r="C295" t="s">
-        <v>147</v>
-      </c>
       <c r="D295" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E295" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F295">
         <v>558927727575</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" hidden="1">
       <c r="A296" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B296" t="s">
+        <v>145</v>
+      </c>
+      <c r="C296" t="s">
         <v>146</v>
       </c>
-      <c r="C296" t="s">
-        <v>147</v>
-      </c>
       <c r="D296" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E296" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F296">
         <v>558991206565</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" hidden="1">
       <c r="A297" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B297" t="s">
+        <v>145</v>
+      </c>
+      <c r="C297" t="s">
         <v>146</v>
       </c>
-      <c r="C297" t="s">
-        <v>147</v>
-      </c>
       <c r="D297" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E297" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F297">
         <v>535978323415</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" hidden="1">
       <c r="A298" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B298" t="s">
+        <v>145</v>
+      </c>
+      <c r="C298" t="s">
         <v>146</v>
       </c>
-      <c r="C298" t="s">
-        <v>147</v>
-      </c>
       <c r="D298" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E298" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F298">
         <v>558861710683</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" hidden="1">
       <c r="A299" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B299" t="s">
+        <v>145</v>
+      </c>
+      <c r="C299" t="s">
         <v>146</v>
       </c>
-      <c r="C299" t="s">
-        <v>147</v>
-      </c>
       <c r="D299" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E299" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F299">
         <v>535978299499</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" hidden="1">
       <c r="A300" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B300" t="s">
+        <v>145</v>
+      </c>
+      <c r="C300" t="s">
         <v>146</v>
       </c>
-      <c r="C300" t="s">
-        <v>147</v>
-      </c>
       <c r="D300" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E300" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F300">
         <v>559057711673</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" hidden="1">
       <c r="A301" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B301" t="s">
+        <v>145</v>
+      </c>
+      <c r="C301" t="s">
         <v>146</v>
       </c>
-      <c r="C301" t="s">
-        <v>147</v>
-      </c>
       <c r="D301" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E301" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F301">
         <v>535978191630</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" hidden="1">
       <c r="A302" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B302" t="s">
+        <v>145</v>
+      </c>
+      <c r="C302" t="s">
         <v>146</v>
       </c>
-      <c r="C302" t="s">
-        <v>147</v>
-      </c>
       <c r="D302" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E302" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F302">
         <v>551938397292</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" hidden="1">
       <c r="A303" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B303" t="s">
+        <v>145</v>
+      </c>
+      <c r="C303" t="s">
         <v>146</v>
       </c>
-      <c r="C303" t="s">
-        <v>147</v>
-      </c>
       <c r="D303" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E303" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F303">
         <v>551918269493</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" hidden="1">
       <c r="A304" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B304" t="s">
+        <v>145</v>
+      </c>
+      <c r="C304" t="s">
         <v>146</v>
       </c>
-      <c r="C304" t="s">
-        <v>147</v>
-      </c>
       <c r="D304" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E304" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F304">
         <v>551936745363</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" hidden="1">
       <c r="A305" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B305" t="s">
+        <v>145</v>
+      </c>
+      <c r="C305" t="s">
         <v>146</v>
       </c>
-      <c r="C305" t="s">
-        <v>147</v>
-      </c>
       <c r="D305" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E305" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F305">
         <v>529398494706</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" hidden="1">
       <c r="A306" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B306" t="s">
+        <v>145</v>
+      </c>
+      <c r="C306" t="s">
         <v>146</v>
       </c>
-      <c r="C306" t="s">
-        <v>147</v>
-      </c>
       <c r="D306" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E306" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F306">
         <v>524799622154</v>
@@ -7690,19 +7691,19 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B307" t="s">
+        <v>147</v>
+      </c>
+      <c r="C307" t="s">
         <v>148</v>
       </c>
-      <c r="C307" t="s">
-        <v>149</v>
-      </c>
       <c r="D307" t="s">
-        <v>27</v>
+        <v>394</v>
       </c>
       <c r="E307" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F307">
         <v>26217600545</v>
@@ -7710,19 +7711,19 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B308" t="s">
+        <v>147</v>
+      </c>
+      <c r="C308" t="s">
         <v>148</v>
       </c>
-      <c r="C308" t="s">
-        <v>149</v>
-      </c>
       <c r="D308" t="s">
-        <v>27</v>
+        <v>394</v>
       </c>
       <c r="E308" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F308">
         <v>533989504167</v>
@@ -7730,19 +7731,19 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B309" t="s">
+        <v>147</v>
+      </c>
+      <c r="C309" t="s">
         <v>148</v>
       </c>
-      <c r="C309" t="s">
-        <v>149</v>
-      </c>
       <c r="D309" t="s">
-        <v>27</v>
+        <v>394</v>
       </c>
       <c r="E309" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F309">
         <v>538101507391</v>
@@ -7750,19 +7751,19 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B310" t="s">
+        <v>147</v>
+      </c>
+      <c r="C310" t="s">
         <v>148</v>
       </c>
-      <c r="C310" t="s">
-        <v>149</v>
-      </c>
       <c r="D310" t="s">
-        <v>27</v>
+        <v>394</v>
       </c>
       <c r="E310" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F310">
         <v>538096447689</v>
@@ -7770,1106 +7771,1112 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B311" t="s">
+        <v>147</v>
+      </c>
+      <c r="C311" t="s">
         <v>148</v>
       </c>
-      <c r="C311" t="s">
-        <v>149</v>
-      </c>
       <c r="D311" t="s">
-        <v>27</v>
+        <v>394</v>
       </c>
       <c r="E311" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F311">
         <v>554456502030</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" hidden="1">
       <c r="A312" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B312" t="s">
+        <v>147</v>
+      </c>
+      <c r="C312" t="s">
         <v>148</v>
-      </c>
-      <c r="C312" t="s">
-        <v>149</v>
       </c>
       <c r="D312" t="s">
         <v>7</v>
       </c>
       <c r="E312" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F312">
         <v>557305798317</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" hidden="1">
       <c r="A313" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B313" t="s">
+        <v>147</v>
+      </c>
+      <c r="C313" t="s">
         <v>148</v>
-      </c>
-      <c r="C313" t="s">
-        <v>149</v>
       </c>
       <c r="D313" t="s">
         <v>7</v>
       </c>
       <c r="E313" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F313">
         <v>557252321309</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" hidden="1">
       <c r="A314" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B314" t="s">
+        <v>147</v>
+      </c>
+      <c r="C314" t="s">
         <v>148</v>
-      </c>
-      <c r="C314" t="s">
-        <v>149</v>
       </c>
       <c r="D314" t="s">
         <v>7</v>
       </c>
       <c r="E314" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F314">
         <v>557257361633</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" hidden="1">
       <c r="A315" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B315" t="s">
+        <v>147</v>
+      </c>
+      <c r="C315" t="s">
         <v>148</v>
-      </c>
-      <c r="C315" t="s">
-        <v>149</v>
       </c>
       <c r="D315" t="s">
         <v>7</v>
       </c>
       <c r="E315" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F315">
         <v>559179304670</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" hidden="1">
       <c r="A316" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B316" t="s">
+        <v>147</v>
+      </c>
+      <c r="C316" t="s">
         <v>148</v>
-      </c>
-      <c r="C316" t="s">
-        <v>149</v>
       </c>
       <c r="D316" t="s">
         <v>7</v>
       </c>
       <c r="E316" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F316">
         <v>561025690015</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" hidden="1">
       <c r="A317" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B317" t="s">
+        <v>147</v>
+      </c>
+      <c r="C317" t="s">
         <v>148</v>
-      </c>
-      <c r="C317" t="s">
-        <v>149</v>
       </c>
       <c r="D317" t="s">
         <v>7</v>
       </c>
       <c r="E317" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F317">
         <v>561377683672</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" hidden="1">
       <c r="A318" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B318" t="s">
+        <v>147</v>
+      </c>
+      <c r="C318" t="s">
         <v>148</v>
       </c>
-      <c r="C318" t="s">
-        <v>149</v>
-      </c>
       <c r="D318" t="s">
         <v>13</v>
       </c>
       <c r="E318" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F318">
         <v>557250201024</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" hidden="1">
       <c r="A319" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B319" t="s">
+        <v>147</v>
+      </c>
+      <c r="C319" t="s">
         <v>148</v>
       </c>
-      <c r="C319" t="s">
-        <v>149</v>
-      </c>
       <c r="D319" t="s">
         <v>13</v>
       </c>
       <c r="E319" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F319">
         <v>557304826984</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" hidden="1">
       <c r="A320" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B320" t="s">
+        <v>147</v>
+      </c>
+      <c r="C320" t="s">
         <v>148</v>
       </c>
-      <c r="C320" t="s">
-        <v>149</v>
-      </c>
       <c r="D320" t="s">
         <v>13</v>
       </c>
       <c r="E320" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F320">
         <v>520500394065</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" hidden="1">
       <c r="A321" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B321" t="s">
+        <v>147</v>
+      </c>
+      <c r="C321" t="s">
         <v>148</v>
       </c>
-      <c r="C321" t="s">
-        <v>149</v>
-      </c>
       <c r="D321" t="s">
         <v>13</v>
       </c>
       <c r="E321" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F321">
         <v>536777966001</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" hidden="1">
       <c r="A322" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B322" t="s">
+        <v>147</v>
+      </c>
+      <c r="C322" t="s">
         <v>148</v>
       </c>
-      <c r="C322" t="s">
-        <v>149</v>
-      </c>
       <c r="D322" t="s">
         <v>13</v>
       </c>
       <c r="E322" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F322">
         <v>557297066706</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" hidden="1">
       <c r="A323" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B323" t="s">
+        <v>147</v>
+      </c>
+      <c r="C323" t="s">
         <v>148</v>
       </c>
-      <c r="C323" t="s">
-        <v>149</v>
-      </c>
       <c r="D323" t="s">
         <v>13</v>
       </c>
       <c r="E323" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F323">
         <v>557171392559</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" hidden="1">
       <c r="A324" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B324" t="s">
+        <v>147</v>
+      </c>
+      <c r="C324" t="s">
         <v>148</v>
       </c>
-      <c r="C324" t="s">
-        <v>149</v>
-      </c>
       <c r="D324" t="s">
         <v>13</v>
       </c>
       <c r="E324" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F324">
         <v>557303902515</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" hidden="1">
       <c r="A325" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B325" t="s">
+        <v>147</v>
+      </c>
+      <c r="C325" t="s">
         <v>148</v>
       </c>
-      <c r="C325" t="s">
-        <v>149</v>
-      </c>
       <c r="D325" t="s">
         <v>13</v>
       </c>
       <c r="E325" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F325">
         <v>559269241736</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" hidden="1">
       <c r="A326" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B326" t="s">
+        <v>147</v>
+      </c>
+      <c r="C326" t="s">
         <v>148</v>
       </c>
-      <c r="C326" t="s">
-        <v>149</v>
-      </c>
       <c r="D326" t="s">
         <v>13</v>
       </c>
       <c r="E326" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F326">
         <v>557165008970</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" hidden="1">
       <c r="A327" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B327" t="s">
+        <v>147</v>
+      </c>
+      <c r="C327" t="s">
         <v>148</v>
       </c>
-      <c r="C327" t="s">
-        <v>149</v>
-      </c>
       <c r="D327" t="s">
         <v>13</v>
       </c>
       <c r="E327" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F327">
         <v>520499954937</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" hidden="1">
       <c r="A328" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B328" t="s">
+        <v>147</v>
+      </c>
+      <c r="C328" t="s">
         <v>148</v>
       </c>
-      <c r="C328" t="s">
-        <v>149</v>
-      </c>
       <c r="D328" t="s">
         <v>13</v>
       </c>
       <c r="E328" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F328">
         <v>557298018125</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" hidden="1">
       <c r="A329" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B329" t="s">
+        <v>147</v>
+      </c>
+      <c r="C329" t="s">
         <v>148</v>
       </c>
-      <c r="C329" t="s">
-        <v>149</v>
-      </c>
       <c r="D329" t="s">
         <v>13</v>
       </c>
       <c r="E329" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F329">
         <v>557362839334</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" hidden="1">
       <c r="A330" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B330" t="s">
+        <v>147</v>
+      </c>
+      <c r="C330" t="s">
         <v>148</v>
       </c>
-      <c r="C330" t="s">
-        <v>149</v>
-      </c>
       <c r="D330" t="s">
         <v>13</v>
       </c>
       <c r="E330" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F330">
         <v>536741860116</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" hidden="1">
       <c r="A331" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B331" t="s">
+        <v>147</v>
+      </c>
+      <c r="C331" t="s">
         <v>148</v>
       </c>
-      <c r="C331" t="s">
-        <v>149</v>
-      </c>
       <c r="D331" t="s">
         <v>13</v>
       </c>
       <c r="E331" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F331">
         <v>557173516352</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" hidden="1">
       <c r="A332" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B332" t="s">
+        <v>147</v>
+      </c>
+      <c r="C332" t="s">
         <v>148</v>
       </c>
-      <c r="C332" t="s">
-        <v>149</v>
-      </c>
       <c r="D332" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E332" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F332">
         <v>14023444768</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" hidden="1">
       <c r="A333" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B333" t="s">
+        <v>147</v>
+      </c>
+      <c r="C333" t="s">
         <v>148</v>
       </c>
-      <c r="C333" t="s">
-        <v>149</v>
-      </c>
       <c r="D333" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E333" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F333">
         <v>536996140783</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" hidden="1">
       <c r="A334" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B334" t="s">
+        <v>147</v>
+      </c>
+      <c r="C334" t="s">
         <v>148</v>
       </c>
-      <c r="C334" t="s">
-        <v>149</v>
-      </c>
       <c r="D334" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E334" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F334">
         <v>536847031903</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" hidden="1">
       <c r="A335" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B335" t="s">
+        <v>147</v>
+      </c>
+      <c r="C335" t="s">
         <v>148</v>
       </c>
-      <c r="C335" t="s">
-        <v>149</v>
-      </c>
       <c r="D335" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E335" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F335">
         <v>520270699637</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" hidden="1">
       <c r="A336" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B336" t="s">
+        <v>147</v>
+      </c>
+      <c r="C336" t="s">
         <v>148</v>
       </c>
-      <c r="C336" t="s">
-        <v>149</v>
-      </c>
       <c r="D336" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E336" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F336">
         <v>14023480446</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" hidden="1">
       <c r="A337" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B337" t="s">
+        <v>147</v>
+      </c>
+      <c r="C337" t="s">
         <v>148</v>
       </c>
-      <c r="C337" t="s">
-        <v>149</v>
-      </c>
       <c r="D337" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E337" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F337">
         <v>13082654232</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" hidden="1">
       <c r="A338" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B338" t="s">
+        <v>147</v>
+      </c>
+      <c r="C338" t="s">
         <v>148</v>
       </c>
-      <c r="C338" t="s">
-        <v>149</v>
-      </c>
       <c r="D338" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E338" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F338">
         <v>522920732025</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" hidden="1">
       <c r="A339" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B339" t="s">
+        <v>147</v>
+      </c>
+      <c r="C339" t="s">
         <v>148</v>
       </c>
-      <c r="C339" t="s">
-        <v>149</v>
-      </c>
       <c r="D339" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E339" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F339">
         <v>520272996081</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" hidden="1">
       <c r="A340" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B340" t="s">
+        <v>147</v>
+      </c>
+      <c r="C340" t="s">
         <v>148</v>
       </c>
-      <c r="C340" t="s">
-        <v>149</v>
-      </c>
       <c r="D340" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E340" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F340">
         <v>520270401714</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" hidden="1">
       <c r="A341" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B341" t="s">
+        <v>147</v>
+      </c>
+      <c r="C341" t="s">
         <v>148</v>
       </c>
-      <c r="C341" t="s">
-        <v>149</v>
-      </c>
       <c r="D341" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E341" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F341">
         <v>534573615994</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" hidden="1">
       <c r="A342" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B342" t="s">
+        <v>147</v>
+      </c>
+      <c r="C342" t="s">
         <v>148</v>
       </c>
-      <c r="C342" t="s">
-        <v>149</v>
-      </c>
       <c r="D342" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E342" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F342">
         <v>564080535159</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" hidden="1">
       <c r="A343" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B343" t="s">
+        <v>147</v>
+      </c>
+      <c r="C343" t="s">
         <v>148</v>
       </c>
-      <c r="C343" t="s">
-        <v>149</v>
-      </c>
       <c r="D343" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E343" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F343">
         <v>522893959694</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" hidden="1">
       <c r="A344" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B344" t="s">
+        <v>147</v>
+      </c>
+      <c r="C344" t="s">
         <v>148</v>
       </c>
-      <c r="C344" t="s">
-        <v>149</v>
-      </c>
       <c r="D344" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E344" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F344">
         <v>520272726233</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" hidden="1">
       <c r="A345" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B345" t="s">
+        <v>147</v>
+      </c>
+      <c r="C345" t="s">
         <v>148</v>
       </c>
-      <c r="C345" t="s">
-        <v>149</v>
-      </c>
       <c r="D345" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E345" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F345">
         <v>14023436964</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" hidden="1">
       <c r="A346" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B346" t="s">
+        <v>147</v>
+      </c>
+      <c r="C346" t="s">
         <v>148</v>
       </c>
-      <c r="C346" t="s">
-        <v>149</v>
-      </c>
       <c r="D346" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E346" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F346">
         <v>536847315304</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" hidden="1">
       <c r="A347" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B347" t="s">
+        <v>147</v>
+      </c>
+      <c r="C347" t="s">
         <v>148</v>
       </c>
-      <c r="C347" t="s">
-        <v>149</v>
-      </c>
       <c r="D347" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E347" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F347">
         <v>563946821989</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" hidden="1">
       <c r="A348" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B348" t="s">
+        <v>147</v>
+      </c>
+      <c r="C348" t="s">
         <v>148</v>
       </c>
-      <c r="C348" t="s">
-        <v>149</v>
-      </c>
       <c r="D348" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E348" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F348">
         <v>564104944588</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" hidden="1">
       <c r="A349" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B349" t="s">
+        <v>147</v>
+      </c>
+      <c r="C349" t="s">
         <v>148</v>
       </c>
-      <c r="C349" t="s">
-        <v>149</v>
-      </c>
       <c r="D349" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E349" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F349">
         <v>534574151394</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" hidden="1">
       <c r="A350" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B350" t="s">
+        <v>147</v>
+      </c>
+      <c r="C350" t="s">
         <v>148</v>
       </c>
-      <c r="C350" t="s">
-        <v>149</v>
-      </c>
       <c r="D350" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E350" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F350">
         <v>539027931957</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" hidden="1">
       <c r="A351" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B351" t="s">
+        <v>147</v>
+      </c>
+      <c r="C351" t="s">
         <v>148</v>
       </c>
-      <c r="C351" t="s">
-        <v>149</v>
-      </c>
       <c r="D351" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E351" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F351">
         <v>520273012067</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" hidden="1">
       <c r="A352" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B352" t="s">
+        <v>147</v>
+      </c>
+      <c r="C352" t="s">
         <v>148</v>
       </c>
-      <c r="C352" t="s">
-        <v>149</v>
-      </c>
       <c r="D352" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E352" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F352">
         <v>563948033154</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" hidden="1">
       <c r="A353" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B353" t="s">
+        <v>147</v>
+      </c>
+      <c r="C353" t="s">
         <v>148</v>
       </c>
-      <c r="C353" t="s">
-        <v>149</v>
-      </c>
       <c r="D353" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E353" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F353">
         <v>536957937847</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" hidden="1">
       <c r="A354" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B354" t="s">
+        <v>147</v>
+      </c>
+      <c r="C354" t="s">
         <v>148</v>
       </c>
-      <c r="C354" t="s">
-        <v>149</v>
-      </c>
       <c r="D354" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E354" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F354">
         <v>536920910593</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" hidden="1">
       <c r="A355" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B355" t="s">
+        <v>147</v>
+      </c>
+      <c r="C355" t="s">
         <v>148</v>
       </c>
-      <c r="C355" t="s">
-        <v>149</v>
-      </c>
       <c r="D355" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E355" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F355">
         <v>552294913080</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" hidden="1">
       <c r="A356" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B356" t="s">
+        <v>147</v>
+      </c>
+      <c r="C356" t="s">
         <v>148</v>
       </c>
-      <c r="C356" t="s">
-        <v>149</v>
-      </c>
       <c r="D356" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E356" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F356">
         <v>540290207969</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" hidden="1">
       <c r="A357" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B357" t="s">
+        <v>147</v>
+      </c>
+      <c r="C357" t="s">
         <v>148</v>
       </c>
-      <c r="C357" t="s">
-        <v>149</v>
-      </c>
       <c r="D357" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E357" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F357">
         <v>540283992485</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:6" hidden="1">
       <c r="A358" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B358" t="s">
+        <v>147</v>
+      </c>
+      <c r="C358" t="s">
         <v>148</v>
       </c>
-      <c r="C358" t="s">
-        <v>149</v>
-      </c>
       <c r="D358" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E358" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F358">
         <v>536695972182</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:6" hidden="1">
       <c r="A359" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B359" t="s">
+        <v>147</v>
+      </c>
+      <c r="C359" t="s">
         <v>148</v>
       </c>
-      <c r="C359" t="s">
-        <v>149</v>
-      </c>
       <c r="D359" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E359" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F359">
         <v>536847011852</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" hidden="1">
       <c r="A360" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B360" t="s">
+        <v>147</v>
+      </c>
+      <c r="C360" t="s">
         <v>148</v>
       </c>
-      <c r="C360" t="s">
-        <v>149</v>
-      </c>
       <c r="D360" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E360" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F360">
         <v>536847235462</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" hidden="1">
       <c r="A361" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B361" t="s">
+        <v>147</v>
+      </c>
+      <c r="C361" t="s">
         <v>148</v>
       </c>
-      <c r="C361" t="s">
-        <v>149</v>
-      </c>
       <c r="D361" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E361" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F361">
         <v>552329550911</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" hidden="1">
       <c r="A362" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B362" t="s">
+        <v>147</v>
+      </c>
+      <c r="C362" t="s">
         <v>148</v>
       </c>
-      <c r="C362" t="s">
-        <v>149</v>
-      </c>
       <c r="D362" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E362" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F362">
         <v>536847243435</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" hidden="1">
       <c r="A363" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B363" t="s">
+        <v>147</v>
+      </c>
+      <c r="C363" t="s">
         <v>148</v>
       </c>
-      <c r="C363" t="s">
-        <v>149</v>
-      </c>
       <c r="D363" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E363" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F363">
         <v>536610825986</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" hidden="1">
       <c r="A364" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B364" t="s">
+        <v>147</v>
+      </c>
+      <c r="C364" t="s">
         <v>148</v>
       </c>
-      <c r="C364" t="s">
-        <v>149</v>
-      </c>
       <c r="D364" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E364" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F364">
         <v>536349658964</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" hidden="1">
       <c r="A365" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B365" t="s">
+        <v>147</v>
+      </c>
+      <c r="C365" t="s">
         <v>148</v>
       </c>
-      <c r="C365" t="s">
-        <v>149</v>
-      </c>
       <c r="D365" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E365" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F365">
         <v>534640574617</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F365"/>
+  <autoFilter ref="A1:F365">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="MOM"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="F2 E1:E1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>

--- a/store_url_mapping.xlsx
+++ b/store_url_mapping.xlsx
@@ -1552,11 +1552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D311"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1589,7 +1588,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1609,7 +1608,7 @@
         <v>4396232</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1629,7 +1628,7 @@
         <v>4396142</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1649,7 +1648,7 @@
         <v>3849865</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1669,7 +1668,7 @@
         <v>4209173</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1689,7 +1688,7 @@
         <v>5285870</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1709,7 +1708,7 @@
         <v>4713594</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1729,7 +1728,7 @@
         <v>4008365</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1749,7 +1748,7 @@
         <v>4713572</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1769,7 +1768,7 @@
         <v>4712764</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1789,7 +1788,7 @@
         <v>4712778</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1809,7 +1808,7 @@
         <v>4007911</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1829,7 +1828,7 @@
         <v>4712762</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1849,7 +1848,7 @@
         <v>4712736</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1869,7 +1868,7 @@
         <v>4007909</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1929,7 +1928,7 @@
         <v>255780</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1949,7 +1948,7 @@
         <v>1080961</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1969,7 +1968,7 @@
         <v>25931802723</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1989,7 +1988,7 @@
         <v>25092330368</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2009,7 +2008,7 @@
         <v>25050683515</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2029,7 +2028,7 @@
         <v>25050683514</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2049,7 +2048,7 @@
         <v>13695381271</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2069,7 +2068,7 @@
         <v>13695381267</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2089,7 +2088,7 @@
         <v>13695381268</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2109,7 +2108,7 @@
         <v>13695381265</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2129,7 +2128,7 @@
         <v>13695381270</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2149,7 +2148,7 @@
         <v>13695381262</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2169,7 +2168,7 @@
         <v>13695381264</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2189,7 +2188,7 @@
         <v>13695381263</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2209,7 +2208,7 @@
         <v>13695381269</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2229,7 +2228,7 @@
         <v>13695381266</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2249,7 +2248,7 @@
         <v>12299826003</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2269,7 +2268,7 @@
         <v>18555840051</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2289,7 +2288,7 @@
         <v>18555840050</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2309,7 +2308,7 @@
         <v>12424332573</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2329,7 +2328,7 @@
         <v>16546674330</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -2349,7 +2348,7 @@
         <v>16546674329</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -2369,7 +2368,7 @@
         <v>13675223690</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2389,7 +2388,7 @@
         <v>12082162643</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2409,7 +2408,7 @@
         <v>16545462931</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -2429,7 +2428,7 @@
         <v>16545462930</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -2449,7 +2448,7 @@
         <v>16545462929</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -2469,7 +2468,7 @@
         <v>12083025102</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -2489,7 +2488,7 @@
         <v>16544948616</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -2509,7 +2508,7 @@
         <v>16544948617</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2529,7 +2528,7 @@
         <v>13675552365</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2549,7 +2548,7 @@
         <v>12083146163</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -2569,7 +2568,7 @@
         <v>16498569454</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2589,7 +2588,7 @@
         <v>14446124474</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -2609,7 +2608,7 @@
         <v>14446124475</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -2629,7 +2628,7 @@
         <v>12400757767</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -2649,7 +2648,7 @@
         <v>12083388599</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -2669,7 +2668,7 @@
         <v>14445404727</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -2689,7 +2688,7 @@
         <v>14445404726</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -2709,7 +2708,7 @@
         <v>13638853955</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -2729,7 +2728,7 @@
         <v>12082373228</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -2749,7 +2748,7 @@
         <v>14441834226</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -2769,7 +2768,7 @@
         <v>13639679598</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -2829,7 +2828,7 @@
         <v>12298574507</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -2849,7 +2848,7 @@
         <v>13741836484</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -2869,7 +2868,7 @@
         <v>13741836486</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -2889,7 +2888,7 @@
         <v>13741836485</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -2909,7 +2908,7 @@
         <v>13674904462</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -2929,7 +2928,7 @@
         <v>13674904461</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -2949,7 +2948,7 @@
         <v>13674728744</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -2969,7 +2968,7 @@
         <v>13674728743</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -2989,7 +2988,7 @@
         <v>13674506362</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -3009,7 +3008,7 @@
         <v>13674506361</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -3029,7 +3028,7 @@
         <v>13674411005</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -3089,7 +3088,7 @@
         <v>13516246557</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -3109,7 +3108,7 @@
         <v>12656575216</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -3129,7 +3128,7 @@
         <v>12656575217</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -3149,7 +3148,7 @@
         <v>12656575218</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -3169,7 +3168,7 @@
         <v>12424200273</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -3189,7 +3188,7 @@
         <v>12539168859</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -3209,7 +3208,7 @@
         <v>12538674481</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -3229,7 +3228,7 @@
         <v>12400682887</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -3249,7 +3248,7 @@
         <v>13467926194</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -3269,7 +3268,7 @@
         <v>12170684578</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -3289,7 +3288,7 @@
         <v>12301482752</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -3309,7 +3308,7 @@
         <v>12301180135</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -3329,7 +3328,7 @@
         <v>12301067262</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -3349,7 +3348,7 @@
         <v>12300597399</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -3369,7 +3368,7 @@
         <v>12300109800</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -3389,7 +3388,7 @@
         <v>12299611125</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -3409,7 +3408,7 @@
         <v>12085074541</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -3429,7 +3428,7 @@
         <v>12082581959</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -3449,7 +3448,7 @@
         <v>1240027</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -3469,7 +3468,7 @@
         <v>255803</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -3489,7 +3488,7 @@
         <v>255802</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -3509,7 +3508,7 @@
         <v>1240022</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -3529,7 +3528,7 @@
         <v>4857678</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -3549,7 +3548,7 @@
         <v>255797</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -3569,7 +3568,7 @@
         <v>1140667</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -3589,7 +3588,7 @@
         <v>255800</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -3609,7 +3608,7 @@
         <v>4080239</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -3629,7 +3628,7 @@
         <v>255798</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -3649,7 +3648,7 @@
         <v>255799</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -3669,7 +3668,7 @@
         <v>6084935</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>4</v>
       </c>
@@ -3689,7 +3688,7 @@
         <v>1240023</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>4</v>
       </c>
@@ -3709,7 +3708,7 @@
         <v>1240024</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>4</v>
       </c>
@@ -3729,7 +3728,7 @@
         <v>6078298</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>4</v>
       </c>
@@ -3749,7 +3748,7 @@
         <v>5186742</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>4</v>
       </c>
@@ -3769,7 +3768,7 @@
         <v>1339986</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -3789,7 +3788,7 @@
         <v>1339964</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>4</v>
       </c>
@@ -3809,7 +3808,7 @@
         <v>1339980</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -3829,7 +3828,7 @@
         <v>1339973</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -3849,7 +3848,7 @@
         <v>1339960</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -3869,7 +3868,7 @@
         <v>1339978</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -3889,7 +3888,7 @@
         <v>1339976</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>4</v>
       </c>
@@ -3909,7 +3908,7 @@
         <v>1339992</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -3929,7 +3928,7 @@
         <v>1339977</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -3949,7 +3948,7 @@
         <v>1339987</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -3969,7 +3968,7 @@
         <v>1339993</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -3989,7 +3988,7 @@
         <v>1339981</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>4</v>
       </c>
@@ -4009,7 +4008,7 @@
         <v>1339982</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -4029,7 +4028,7 @@
         <v>1339965</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -4049,7 +4048,7 @@
         <v>1339983</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1">
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>4</v>
       </c>
@@ -4069,7 +4068,7 @@
         <v>1339974</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1">
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>4</v>
       </c>
@@ -4089,7 +4088,7 @@
         <v>4244687</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1">
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>4</v>
       </c>
@@ -4149,7 +4148,7 @@
         <v>102878788</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1">
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>149</v>
       </c>
@@ -4169,7 +4168,7 @@
         <v>610800872</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1">
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>149</v>
       </c>
@@ -4189,7 +4188,7 @@
         <v>610800875</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>149</v>
       </c>
@@ -4209,7 +4208,7 @@
         <v>103630807</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>149</v>
       </c>
@@ -4229,7 +4228,7 @@
         <v>610800873</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>149</v>
       </c>
@@ -4249,7 +4248,7 @@
         <v>610800876</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>149</v>
       </c>
@@ -4269,7 +4268,7 @@
         <v>610800856</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>149</v>
       </c>
@@ -4289,7 +4288,7 @@
         <v>610800855</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>149</v>
       </c>
@@ -4309,7 +4308,7 @@
         <v>610800857</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>149</v>
       </c>
@@ -4329,7 +4328,7 @@
         <v>610800858</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1">
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>149</v>
       </c>
@@ -4349,7 +4348,7 @@
         <v>610800874</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>149</v>
       </c>
@@ -4369,7 +4368,7 @@
         <v>600017408</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>149</v>
       </c>
@@ -4389,7 +4388,7 @@
         <v>600017407</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>149</v>
       </c>
@@ -4409,7 +4408,7 @@
         <v>103721215</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>149</v>
       </c>
@@ -4429,7 +4428,7 @@
         <v>600017406</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1">
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>149</v>
       </c>
@@ -4449,7 +4448,7 @@
         <v>646949532</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1">
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>149</v>
       </c>
@@ -4469,7 +4468,7 @@
         <v>102461581</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1">
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>149</v>
       </c>
@@ -4489,7 +4488,7 @@
         <v>102461577</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1">
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -4509,7 +4508,7 @@
         <v>123999590</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1">
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>149</v>
       </c>
@@ -4529,7 +4528,7 @@
         <v>102461575</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1">
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -4549,7 +4548,7 @@
         <v>120278555</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1">
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -4569,7 +4568,7 @@
         <v>102461579</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1">
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -4589,7 +4588,7 @@
         <v>102461576</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1">
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -4609,7 +4608,7 @@
         <v>102461580</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1">
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>149</v>
       </c>
@@ -4629,7 +4628,7 @@
         <v>123996226</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1">
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>149</v>
       </c>
@@ -4649,7 +4648,7 @@
         <v>123998119</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1">
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>149</v>
       </c>
@@ -4669,7 +4668,7 @@
         <v>123997670</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1">
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>149</v>
       </c>
@@ -4689,7 +4688,7 @@
         <v>615596524</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1">
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>149</v>
       </c>
@@ -4709,7 +4708,7 @@
         <v>781978185</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1">
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>149</v>
       </c>
@@ -4729,7 +4728,7 @@
         <v>615596523</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1">
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>149</v>
       </c>
@@ -4749,7 +4748,7 @@
         <v>10092120760</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1">
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>149</v>
       </c>
@@ -4769,7 +4768,7 @@
         <v>10092120759</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1">
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
         <v>140</v>
       </c>
@@ -4789,7 +4788,7 @@
         <v>533747959004</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1">
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
         <v>140</v>
       </c>
@@ -4809,7 +4808,7 @@
         <v>533065312599</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1">
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>140</v>
       </c>
@@ -4829,7 +4828,7 @@
         <v>44095998966</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1">
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
         <v>140</v>
       </c>
@@ -4849,7 +4848,7 @@
         <v>528373077759</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1">
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
         <v>140</v>
       </c>
@@ -4869,7 +4868,7 @@
         <v>532732517162</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1">
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
         <v>140</v>
       </c>
@@ -4889,7 +4888,7 @@
         <v>40337418469</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1">
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
         <v>140</v>
       </c>
@@ -4909,7 +4908,7 @@
         <v>536331066559</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1">
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
         <v>140</v>
       </c>
@@ -4929,7 +4928,7 @@
         <v>565044224463</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1">
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
         <v>140</v>
       </c>
@@ -4949,7 +4948,7 @@
         <v>23477636937</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1">
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
         <v>140</v>
       </c>
@@ -4969,7 +4968,7 @@
         <v>43961411815</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1">
+    <row r="171" spans="1:6">
       <c r="A171" t="s">
         <v>140</v>
       </c>
@@ -4989,7 +4988,7 @@
         <v>36130973835</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1">
+    <row r="172" spans="1:6">
       <c r="A172" t="s">
         <v>140</v>
       </c>
@@ -5009,7 +5008,7 @@
         <v>524641291671</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1">
+    <row r="173" spans="1:6">
       <c r="A173" t="s">
         <v>140</v>
       </c>
@@ -5029,7 +5028,7 @@
         <v>23471120077</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1">
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
         <v>140</v>
       </c>
@@ -5049,7 +5048,7 @@
         <v>17648438926</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1">
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
         <v>140</v>
       </c>
@@ -5069,7 +5068,7 @@
         <v>17648538736</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1">
+    <row r="176" spans="1:6">
       <c r="A176" t="s">
         <v>140</v>
       </c>
@@ -5089,7 +5088,7 @@
         <v>19480427581</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1">
+    <row r="177" spans="1:6">
       <c r="A177" t="s">
         <v>140</v>
       </c>
@@ -5109,7 +5108,7 @@
         <v>529720140223</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1">
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
         <v>140</v>
       </c>
@@ -5129,7 +5128,7 @@
         <v>41205514458</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1">
+    <row r="179" spans="1:6">
       <c r="A179" t="s">
         <v>140</v>
       </c>
@@ -5149,7 +5148,7 @@
         <v>41189695491</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1">
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
         <v>140</v>
       </c>
@@ -5169,7 +5168,7 @@
         <v>36130743621</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1">
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
         <v>140</v>
       </c>
@@ -5189,7 +5188,7 @@
         <v>558429345561</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1">
+    <row r="182" spans="1:6">
       <c r="A182" t="s">
         <v>140</v>
       </c>
@@ -5289,7 +5288,7 @@
         <v>39244054131</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1">
+    <row r="187" spans="1:6">
       <c r="A187" t="s">
         <v>140</v>
       </c>
@@ -5309,7 +5308,7 @@
         <v>545616955328</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1">
+    <row r="188" spans="1:6">
       <c r="A188" t="s">
         <v>140</v>
       </c>
@@ -5329,7 +5328,7 @@
         <v>36984529022</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1">
+    <row r="189" spans="1:6">
       <c r="A189" t="s">
         <v>140</v>
       </c>
@@ -5349,7 +5348,7 @@
         <v>23464208294</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1">
+    <row r="190" spans="1:6">
       <c r="A190" t="s">
         <v>140</v>
       </c>
@@ -5369,7 +5368,7 @@
         <v>44104247673</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1">
+    <row r="191" spans="1:6">
       <c r="A191" t="s">
         <v>140</v>
       </c>
@@ -5389,7 +5388,7 @@
         <v>556392094755</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1">
+    <row r="192" spans="1:6">
       <c r="A192" t="s">
         <v>140</v>
       </c>
@@ -5409,7 +5408,7 @@
         <v>39234283947</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1">
+    <row r="193" spans="1:6">
       <c r="A193" t="s">
         <v>140</v>
       </c>
@@ -5429,7 +5428,7 @@
         <v>545589366243</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1">
+    <row r="194" spans="1:6">
       <c r="A194" t="s">
         <v>140</v>
       </c>
@@ -5449,7 +5448,7 @@
         <v>545135822523</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1">
+    <row r="195" spans="1:6">
       <c r="A195" t="s">
         <v>140</v>
       </c>
@@ -5469,7 +5468,7 @@
         <v>544372646926</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1">
+    <row r="196" spans="1:6">
       <c r="A196" t="s">
         <v>140</v>
       </c>
@@ -5489,7 +5488,7 @@
         <v>553967190432</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1">
+    <row r="197" spans="1:6">
       <c r="A197" t="s">
         <v>140</v>
       </c>
@@ -5509,7 +5508,7 @@
         <v>539966275589</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1">
+    <row r="198" spans="1:6">
       <c r="A198" t="s">
         <v>140</v>
       </c>
@@ -5529,7 +5528,7 @@
         <v>539963816913</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1">
+    <row r="199" spans="1:6">
       <c r="A199" t="s">
         <v>140</v>
       </c>
@@ -5549,7 +5548,7 @@
         <v>544338112849</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1">
+    <row r="200" spans="1:6">
       <c r="A200" t="s">
         <v>140</v>
       </c>
@@ -5569,7 +5568,7 @@
         <v>539966158037</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1">
+    <row r="201" spans="1:6">
       <c r="A201" t="s">
         <v>140</v>
       </c>
@@ -5589,7 +5588,7 @@
         <v>544438110640</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1">
+    <row r="202" spans="1:6">
       <c r="A202" t="s">
         <v>140</v>
       </c>
@@ -5609,7 +5608,7 @@
         <v>539419425366</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1">
+    <row r="203" spans="1:6">
       <c r="A203" t="s">
         <v>140</v>
       </c>
@@ -5629,7 +5628,7 @@
         <v>544390975563</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1">
+    <row r="204" spans="1:6">
       <c r="A204" t="s">
         <v>140</v>
       </c>
@@ -5649,7 +5648,7 @@
         <v>559308160657</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1">
+    <row r="205" spans="1:6">
       <c r="A205" t="s">
         <v>140</v>
       </c>
@@ -5669,7 +5668,7 @@
         <v>540012314131</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1">
+    <row r="206" spans="1:6">
       <c r="A206" t="s">
         <v>140</v>
       </c>
@@ -5689,7 +5688,7 @@
         <v>554021827194</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1">
+    <row r="207" spans="1:6">
       <c r="A207" t="s">
         <v>140</v>
       </c>
@@ -5709,7 +5708,7 @@
         <v>545138770586</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1">
+    <row r="208" spans="1:6">
       <c r="A208" t="s">
         <v>140</v>
       </c>
@@ -5729,7 +5728,7 @@
         <v>558957811614</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1">
+    <row r="209" spans="1:6">
       <c r="A209" t="s">
         <v>140</v>
       </c>
@@ -5749,7 +5748,7 @@
         <v>558902414522</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1">
+    <row r="210" spans="1:6">
       <c r="A210" t="s">
         <v>140</v>
       </c>
@@ -5769,7 +5768,7 @@
         <v>539968095876</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1">
+    <row r="211" spans="1:6">
       <c r="A211" t="s">
         <v>140</v>
       </c>
@@ -5789,7 +5788,7 @@
         <v>553937549311</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1">
+    <row r="212" spans="1:6">
       <c r="A212" t="s">
         <v>140</v>
       </c>
@@ -5809,7 +5808,7 @@
         <v>539966316144</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1">
+    <row r="213" spans="1:6">
       <c r="A213" t="s">
         <v>140</v>
       </c>
@@ -5829,7 +5828,7 @@
         <v>543532688716</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1">
+    <row r="214" spans="1:6">
       <c r="A214" t="s">
         <v>140</v>
       </c>
@@ -5849,7 +5848,7 @@
         <v>539962244112</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1">
+    <row r="215" spans="1:6">
       <c r="A215" t="s">
         <v>140</v>
       </c>
@@ -5869,7 +5868,7 @@
         <v>558950059549</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1">
+    <row r="216" spans="1:6">
       <c r="A216" t="s">
         <v>140</v>
       </c>
@@ -5889,7 +5888,7 @@
         <v>540012726331</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1">
+    <row r="217" spans="1:6">
       <c r="A217" t="s">
         <v>140</v>
       </c>
@@ -5909,7 +5908,7 @@
         <v>540013292848</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1">
+    <row r="218" spans="1:6">
       <c r="A218" t="s">
         <v>140</v>
       </c>
@@ -5929,7 +5928,7 @@
         <v>539966536274</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1">
+    <row r="219" spans="1:6">
       <c r="A219" t="s">
         <v>140</v>
       </c>
@@ -5949,7 +5948,7 @@
         <v>563487222700</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1">
+    <row r="220" spans="1:6">
       <c r="A220" t="s">
         <v>140</v>
       </c>
@@ -5969,7 +5968,7 @@
         <v>563418565011</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1">
+    <row r="221" spans="1:6">
       <c r="A221" t="s">
         <v>140</v>
       </c>
@@ -5989,7 +5988,7 @@
         <v>563431853815</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1">
+    <row r="222" spans="1:6">
       <c r="A222" t="s">
         <v>140</v>
       </c>
@@ -6009,7 +6008,7 @@
         <v>563420605298</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1">
+    <row r="223" spans="1:6">
       <c r="A223" t="s">
         <v>140</v>
       </c>
@@ -6029,7 +6028,7 @@
         <v>563419565674</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1">
+    <row r="224" spans="1:6">
       <c r="A224" t="s">
         <v>140</v>
       </c>
@@ -6049,7 +6048,7 @@
         <v>563316704583</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1">
+    <row r="225" spans="1:6">
       <c r="A225" t="s">
         <v>140</v>
       </c>
@@ -6069,7 +6068,7 @@
         <v>562946893247</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1">
+    <row r="226" spans="1:6">
       <c r="A226" t="s">
         <v>140</v>
       </c>
@@ -6089,7 +6088,7 @@
         <v>563420381333</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1">
+    <row r="227" spans="1:6">
       <c r="A227" t="s">
         <v>140</v>
       </c>
@@ -6109,7 +6108,7 @@
         <v>563419309173</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1">
+    <row r="228" spans="1:6">
       <c r="A228" t="s">
         <v>140</v>
       </c>
@@ -6129,7 +6128,7 @@
         <v>562845712326</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1">
+    <row r="229" spans="1:6">
       <c r="A229" t="s">
         <v>140</v>
       </c>
@@ -6149,7 +6148,7 @@
         <v>563090099989</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1">
+    <row r="230" spans="1:6">
       <c r="A230" t="s">
         <v>140</v>
       </c>
@@ -6169,7 +6168,7 @@
         <v>562947573029</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1">
+    <row r="231" spans="1:6">
       <c r="A231" t="s">
         <v>140</v>
       </c>
@@ -6189,7 +6188,7 @@
         <v>563035049517</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1">
+    <row r="232" spans="1:6">
       <c r="A232" t="s">
         <v>140</v>
       </c>
@@ -6209,7 +6208,7 @@
         <v>562933884245</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1">
+    <row r="233" spans="1:6">
       <c r="A233" t="s">
         <v>140</v>
       </c>
@@ -6229,7 +6228,7 @@
         <v>562830496721</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1">
+    <row r="234" spans="1:6">
       <c r="A234" t="s">
         <v>140</v>
       </c>
@@ -6249,7 +6248,7 @@
         <v>563087323512</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1">
+    <row r="235" spans="1:6">
       <c r="A235" t="s">
         <v>140</v>
       </c>
@@ -6269,7 +6268,7 @@
         <v>563008974246</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1">
+    <row r="236" spans="1:6">
       <c r="A236" t="s">
         <v>140</v>
       </c>
@@ -6289,7 +6288,7 @@
         <v>562945937147</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1">
+    <row r="237" spans="1:6">
       <c r="A237" t="s">
         <v>140</v>
       </c>
@@ -6309,7 +6308,7 @@
         <v>563088407802</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1">
+    <row r="238" spans="1:6">
       <c r="A238" t="s">
         <v>140</v>
       </c>
@@ -6329,7 +6328,7 @@
         <v>562846656174</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1">
+    <row r="239" spans="1:6">
       <c r="A239" t="s">
         <v>140</v>
       </c>
@@ -6349,7 +6348,7 @@
         <v>563037273548</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1">
+    <row r="240" spans="1:6">
       <c r="A240" t="s">
         <v>140</v>
       </c>
@@ -6369,7 +6368,7 @@
         <v>563414185487</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1">
+    <row r="241" spans="1:6">
       <c r="A241" t="s">
         <v>140</v>
       </c>
@@ -6389,7 +6388,7 @@
         <v>562960624385</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1">
+    <row r="242" spans="1:6">
       <c r="A242" t="s">
         <v>140</v>
       </c>
@@ -6409,7 +6408,7 @@
         <v>563494735279</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1">
+    <row r="243" spans="1:6">
       <c r="A243" t="s">
         <v>140</v>
       </c>
@@ -6429,7 +6428,7 @@
         <v>563129262930</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1">
+    <row r="244" spans="1:6">
       <c r="A244" t="s">
         <v>140</v>
       </c>
@@ -6449,7 +6448,7 @@
         <v>563248300822</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1">
+    <row r="245" spans="1:6">
       <c r="A245" t="s">
         <v>140</v>
       </c>
@@ -6469,7 +6468,7 @@
         <v>563248560489</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1">
+    <row r="246" spans="1:6">
       <c r="A246" t="s">
         <v>140</v>
       </c>
@@ -6489,7 +6488,7 @@
         <v>563350305418</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1">
+    <row r="247" spans="1:6">
       <c r="A247" t="s">
         <v>140</v>
       </c>
@@ -6509,7 +6508,7 @@
         <v>563348701369</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1">
+    <row r="248" spans="1:6">
       <c r="A248" t="s">
         <v>140</v>
       </c>
@@ -6529,7 +6528,7 @@
         <v>563351157118</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1">
+    <row r="249" spans="1:6">
       <c r="A249" t="s">
         <v>140</v>
       </c>
@@ -6549,7 +6548,7 @@
         <v>563063461843</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1">
+    <row r="250" spans="1:6">
       <c r="A250" t="s">
         <v>140</v>
       </c>
@@ -6569,7 +6568,7 @@
         <v>563498754207</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1">
+    <row r="251" spans="1:6">
       <c r="A251" t="s">
         <v>140</v>
       </c>
@@ -6589,7 +6588,7 @@
         <v>563328456991</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1">
+    <row r="252" spans="1:6">
       <c r="A252" t="s">
         <v>140</v>
       </c>
@@ -6609,7 +6608,7 @@
         <v>563496502556</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1">
+    <row r="253" spans="1:6">
       <c r="A253" t="s">
         <v>140</v>
       </c>
@@ -6629,7 +6628,7 @@
         <v>564994852144</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1">
+    <row r="254" spans="1:6">
       <c r="A254" t="s">
         <v>140</v>
       </c>
@@ -6649,7 +6648,7 @@
         <v>563071053907</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1">
+    <row r="255" spans="1:6">
       <c r="A255" t="s">
         <v>140</v>
       </c>
@@ -6669,7 +6668,7 @@
         <v>563408758794</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1">
+    <row r="256" spans="1:6">
       <c r="A256" t="s">
         <v>140</v>
       </c>
@@ -6729,7 +6728,7 @@
         <v>523000703198</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1">
+    <row r="259" spans="1:6">
       <c r="A259" t="s">
         <v>140</v>
       </c>
@@ -6749,7 +6748,7 @@
         <v>556308588016</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1">
+    <row r="260" spans="1:6">
       <c r="A260" t="s">
         <v>140</v>
       </c>
@@ -6769,7 +6768,7 @@
         <v>550045667246</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1">
+    <row r="261" spans="1:6">
       <c r="A261" t="s">
         <v>140</v>
       </c>
@@ -6789,7 +6788,7 @@
         <v>550571692826</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1">
+    <row r="262" spans="1:6">
       <c r="A262" t="s">
         <v>140</v>
       </c>
@@ -6809,7 +6808,7 @@
         <v>551519582578</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1">
+    <row r="263" spans="1:6">
       <c r="A263" t="s">
         <v>140</v>
       </c>
@@ -6829,7 +6828,7 @@
         <v>550041691914</v>
       </c>
     </row>
-    <row r="264" spans="1:6" hidden="1">
+    <row r="264" spans="1:6">
       <c r="A264" t="s">
         <v>140</v>
       </c>
@@ -6849,7 +6848,7 @@
         <v>549566966809</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1">
+    <row r="265" spans="1:6">
       <c r="A265" t="s">
         <v>140</v>
       </c>
@@ -6869,7 +6868,7 @@
         <v>564878985450</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1">
+    <row r="266" spans="1:6">
       <c r="A266" t="s">
         <v>140</v>
       </c>
@@ -6889,7 +6888,7 @@
         <v>560617745513</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1">
+    <row r="267" spans="1:6">
       <c r="A267" t="s">
         <v>140</v>
       </c>
@@ -6909,7 +6908,7 @@
         <v>551439604956</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1">
+    <row r="268" spans="1:6">
       <c r="A268" t="s">
         <v>140</v>
       </c>
@@ -6929,7 +6928,7 @@
         <v>558695572405</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1">
+    <row r="269" spans="1:6">
       <c r="A269" t="s">
         <v>140</v>
       </c>
@@ -6949,7 +6948,7 @@
         <v>550015274487</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1">
+    <row r="270" spans="1:6">
       <c r="A270" t="s">
         <v>140</v>
       </c>
@@ -6969,7 +6968,7 @@
         <v>549985973065</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1">
+    <row r="271" spans="1:6">
       <c r="A271" t="s">
         <v>140</v>
       </c>
@@ -6989,7 +6988,7 @@
         <v>551438024077</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1">
+    <row r="272" spans="1:6">
       <c r="A272" t="s">
         <v>140</v>
       </c>
@@ -7009,7 +7008,7 @@
         <v>549940276744</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1">
+    <row r="273" spans="1:6">
       <c r="A273" t="s">
         <v>140</v>
       </c>
@@ -7029,7 +7028,7 @@
         <v>549989801514</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1">
+    <row r="274" spans="1:6">
       <c r="A274" t="s">
         <v>140</v>
       </c>
@@ -7049,7 +7048,7 @@
         <v>522867607321</v>
       </c>
     </row>
-    <row r="275" spans="1:6" hidden="1">
+    <row r="275" spans="1:6">
       <c r="A275" t="s">
         <v>140</v>
       </c>
@@ -7069,7 +7068,7 @@
         <v>550050763816</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1">
+    <row r="276" spans="1:6">
       <c r="A276" t="s">
         <v>140</v>
       </c>
@@ -7089,7 +7088,7 @@
         <v>551525442096</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1">
+    <row r="277" spans="1:6">
       <c r="A277" t="s">
         <v>140</v>
       </c>
@@ -7109,7 +7108,7 @@
         <v>523244710373</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1">
+    <row r="278" spans="1:6">
       <c r="A278" t="s">
         <v>140</v>
       </c>
@@ -7129,7 +7128,7 @@
         <v>551439040418</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1">
+    <row r="279" spans="1:6">
       <c r="A279" t="s">
         <v>140</v>
       </c>
@@ -7149,7 +7148,7 @@
         <v>549935960334</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1">
+    <row r="280" spans="1:6">
       <c r="A280" t="s">
         <v>140</v>
       </c>
@@ -7169,7 +7168,7 @@
         <v>550049775672</v>
       </c>
     </row>
-    <row r="281" spans="1:6" hidden="1">
+    <row r="281" spans="1:6">
       <c r="A281" t="s">
         <v>140</v>
       </c>
@@ -7189,7 +7188,7 @@
         <v>549991133910</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1">
+    <row r="282" spans="1:6">
       <c r="A282" t="s">
         <v>140</v>
       </c>
@@ -7209,7 +7208,7 @@
         <v>558939033824</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1">
+    <row r="283" spans="1:6">
       <c r="A283" t="s">
         <v>140</v>
       </c>
@@ -7229,7 +7228,7 @@
         <v>559058855691</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1">
+    <row r="284" spans="1:6">
       <c r="A284" t="s">
         <v>140</v>
       </c>
@@ -7249,7 +7248,7 @@
         <v>538168745647</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1">
+    <row r="285" spans="1:6">
       <c r="A285" t="s">
         <v>140</v>
       </c>
@@ -7269,7 +7268,7 @@
         <v>559060107295</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1">
+    <row r="286" spans="1:6">
       <c r="A286" t="s">
         <v>140</v>
       </c>
@@ -7289,7 +7288,7 @@
         <v>559061067475</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1">
+    <row r="287" spans="1:6">
       <c r="A287" t="s">
         <v>140</v>
       </c>
@@ -7309,7 +7308,7 @@
         <v>559057139342</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1">
+    <row r="288" spans="1:6">
       <c r="A288" t="s">
         <v>140</v>
       </c>
@@ -7329,7 +7328,7 @@
         <v>535979879291</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1">
+    <row r="289" spans="1:6">
       <c r="A289" t="s">
         <v>140</v>
       </c>
@@ -7349,7 +7348,7 @@
         <v>558927787922</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1">
+    <row r="290" spans="1:6">
       <c r="A290" t="s">
         <v>140</v>
       </c>
@@ -7369,7 +7368,7 @@
         <v>558863744021</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1">
+    <row r="291" spans="1:6">
       <c r="A291" t="s">
         <v>140</v>
       </c>
@@ -7389,7 +7388,7 @@
         <v>538049955864</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1">
+    <row r="292" spans="1:6">
       <c r="A292" t="s">
         <v>140</v>
       </c>
@@ -7409,7 +7408,7 @@
         <v>559072843540</v>
       </c>
     </row>
-    <row r="293" spans="1:6" hidden="1">
+    <row r="293" spans="1:6">
       <c r="A293" t="s">
         <v>140</v>
       </c>
@@ -7429,7 +7428,7 @@
         <v>560240862759</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1">
+    <row r="294" spans="1:6">
       <c r="A294" t="s">
         <v>140</v>
       </c>
@@ -7449,7 +7448,7 @@
         <v>536050582491</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1">
+    <row r="295" spans="1:6">
       <c r="A295" t="s">
         <v>140</v>
       </c>
@@ -7469,7 +7468,7 @@
         <v>558927727575</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1">
+    <row r="296" spans="1:6">
       <c r="A296" t="s">
         <v>140</v>
       </c>
@@ -7489,7 +7488,7 @@
         <v>558991206565</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1">
+    <row r="297" spans="1:6">
       <c r="A297" t="s">
         <v>140</v>
       </c>
@@ -7509,7 +7508,7 @@
         <v>535978323415</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1">
+    <row r="298" spans="1:6">
       <c r="A298" t="s">
         <v>140</v>
       </c>
@@ -7529,7 +7528,7 @@
         <v>558861710683</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1">
+    <row r="299" spans="1:6">
       <c r="A299" t="s">
         <v>140</v>
       </c>
@@ -7549,7 +7548,7 @@
         <v>535978299499</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1">
+    <row r="300" spans="1:6">
       <c r="A300" t="s">
         <v>140</v>
       </c>
@@ -7569,7 +7568,7 @@
         <v>559057711673</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1">
+    <row r="301" spans="1:6">
       <c r="A301" t="s">
         <v>140</v>
       </c>
@@ -7589,7 +7588,7 @@
         <v>535978191630</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1">
+    <row r="302" spans="1:6">
       <c r="A302" t="s">
         <v>140</v>
       </c>
@@ -7609,7 +7608,7 @@
         <v>551938397292</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1">
+    <row r="303" spans="1:6">
       <c r="A303" t="s">
         <v>140</v>
       </c>
@@ -7629,7 +7628,7 @@
         <v>551918269493</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1">
+    <row r="304" spans="1:6">
       <c r="A304" t="s">
         <v>140</v>
       </c>
@@ -7649,7 +7648,7 @@
         <v>551936745363</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1">
+    <row r="305" spans="1:6">
       <c r="A305" t="s">
         <v>140</v>
       </c>
@@ -7669,7 +7668,7 @@
         <v>529398494706</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1">
+    <row r="306" spans="1:6">
       <c r="A306" t="s">
         <v>140</v>
       </c>
@@ -7789,7 +7788,7 @@
         <v>554456502030</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1">
+    <row r="312" spans="1:6">
       <c r="A312" t="s">
         <v>140</v>
       </c>
@@ -7809,7 +7808,7 @@
         <v>557305798317</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1">
+    <row r="313" spans="1:6">
       <c r="A313" t="s">
         <v>140</v>
       </c>
@@ -7829,7 +7828,7 @@
         <v>557252321309</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1">
+    <row r="314" spans="1:6">
       <c r="A314" t="s">
         <v>140</v>
       </c>
@@ -7849,7 +7848,7 @@
         <v>557257361633</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1">
+    <row r="315" spans="1:6">
       <c r="A315" t="s">
         <v>140</v>
       </c>
@@ -7869,7 +7868,7 @@
         <v>559179304670</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1">
+    <row r="316" spans="1:6">
       <c r="A316" t="s">
         <v>140</v>
       </c>
@@ -7889,7 +7888,7 @@
         <v>561025690015</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1">
+    <row r="317" spans="1:6">
       <c r="A317" t="s">
         <v>140</v>
       </c>
@@ -7909,7 +7908,7 @@
         <v>561377683672</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1">
+    <row r="318" spans="1:6">
       <c r="A318" t="s">
         <v>140</v>
       </c>
@@ -7929,7 +7928,7 @@
         <v>557250201024</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1">
+    <row r="319" spans="1:6">
       <c r="A319" t="s">
         <v>140</v>
       </c>
@@ -7949,7 +7948,7 @@
         <v>557304826984</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1">
+    <row r="320" spans="1:6">
       <c r="A320" t="s">
         <v>140</v>
       </c>
@@ -7969,7 +7968,7 @@
         <v>520500394065</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1">
+    <row r="321" spans="1:6">
       <c r="A321" t="s">
         <v>140</v>
       </c>
@@ -7989,7 +7988,7 @@
         <v>536777966001</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1">
+    <row r="322" spans="1:6">
       <c r="A322" t="s">
         <v>140</v>
       </c>
@@ -8009,7 +8008,7 @@
         <v>557297066706</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1">
+    <row r="323" spans="1:6">
       <c r="A323" t="s">
         <v>140</v>
       </c>
@@ -8029,7 +8028,7 @@
         <v>557171392559</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1">
+    <row r="324" spans="1:6">
       <c r="A324" t="s">
         <v>140</v>
       </c>
@@ -8049,7 +8048,7 @@
         <v>557303902515</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1">
+    <row r="325" spans="1:6">
       <c r="A325" t="s">
         <v>140</v>
       </c>
@@ -8069,7 +8068,7 @@
         <v>559269241736</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1">
+    <row r="326" spans="1:6">
       <c r="A326" t="s">
         <v>140</v>
       </c>
@@ -8089,7 +8088,7 @@
         <v>557165008970</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1">
+    <row r="327" spans="1:6">
       <c r="A327" t="s">
         <v>140</v>
       </c>
@@ -8109,7 +8108,7 @@
         <v>520499954937</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1">
+    <row r="328" spans="1:6">
       <c r="A328" t="s">
         <v>140</v>
       </c>
@@ -8129,7 +8128,7 @@
         <v>557298018125</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1">
+    <row r="329" spans="1:6">
       <c r="A329" t="s">
         <v>140</v>
       </c>
@@ -8149,7 +8148,7 @@
         <v>557362839334</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1">
+    <row r="330" spans="1:6">
       <c r="A330" t="s">
         <v>140</v>
       </c>
@@ -8169,7 +8168,7 @@
         <v>536741860116</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1">
+    <row r="331" spans="1:6">
       <c r="A331" t="s">
         <v>140</v>
       </c>
@@ -8189,7 +8188,7 @@
         <v>557173516352</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1">
+    <row r="332" spans="1:6">
       <c r="A332" t="s">
         <v>140</v>
       </c>
@@ -8209,7 +8208,7 @@
         <v>14023444768</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1">
+    <row r="333" spans="1:6">
       <c r="A333" t="s">
         <v>140</v>
       </c>
@@ -8229,7 +8228,7 @@
         <v>536996140783</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1">
+    <row r="334" spans="1:6">
       <c r="A334" t="s">
         <v>140</v>
       </c>
@@ -8249,7 +8248,7 @@
         <v>536847031903</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1">
+    <row r="335" spans="1:6">
       <c r="A335" t="s">
         <v>140</v>
       </c>
@@ -8269,7 +8268,7 @@
         <v>520270699637</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1">
+    <row r="336" spans="1:6">
       <c r="A336" t="s">
         <v>140</v>
       </c>
@@ -8289,7 +8288,7 @@
         <v>14023480446</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1">
+    <row r="337" spans="1:6">
       <c r="A337" t="s">
         <v>140</v>
       </c>
@@ -8309,7 +8308,7 @@
         <v>13082654232</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1">
+    <row r="338" spans="1:6">
       <c r="A338" t="s">
         <v>140</v>
       </c>
@@ -8329,7 +8328,7 @@
         <v>522920732025</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1">
+    <row r="339" spans="1:6">
       <c r="A339" t="s">
         <v>140</v>
       </c>
@@ -8349,7 +8348,7 @@
         <v>520272996081</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1">
+    <row r="340" spans="1:6">
       <c r="A340" t="s">
         <v>140</v>
       </c>
@@ -8369,7 +8368,7 @@
         <v>520270401714</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1">
+    <row r="341" spans="1:6">
       <c r="A341" t="s">
         <v>140</v>
       </c>
@@ -8389,7 +8388,7 @@
         <v>534573615994</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1">
+    <row r="342" spans="1:6">
       <c r="A342" t="s">
         <v>140</v>
       </c>
@@ -8409,7 +8408,7 @@
         <v>564080535159</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1">
+    <row r="343" spans="1:6">
       <c r="A343" t="s">
         <v>140</v>
       </c>
@@ -8429,7 +8428,7 @@
         <v>522893959694</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1">
+    <row r="344" spans="1:6">
       <c r="A344" t="s">
         <v>140</v>
       </c>
@@ -8449,7 +8448,7 @@
         <v>520272726233</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1">
+    <row r="345" spans="1:6">
       <c r="A345" t="s">
         <v>140</v>
       </c>
@@ -8469,7 +8468,7 @@
         <v>14023436964</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1">
+    <row r="346" spans="1:6">
       <c r="A346" t="s">
         <v>140</v>
       </c>
@@ -8489,7 +8488,7 @@
         <v>536847315304</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1">
+    <row r="347" spans="1:6">
       <c r="A347" t="s">
         <v>140</v>
       </c>
@@ -8509,7 +8508,7 @@
         <v>563946821989</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1">
+    <row r="348" spans="1:6">
       <c r="A348" t="s">
         <v>140</v>
       </c>
@@ -8529,7 +8528,7 @@
         <v>564104944588</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1">
+    <row r="349" spans="1:6">
       <c r="A349" t="s">
         <v>140</v>
       </c>
@@ -8549,7 +8548,7 @@
         <v>534574151394</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1">
+    <row r="350" spans="1:6">
       <c r="A350" t="s">
         <v>140</v>
       </c>
@@ -8569,7 +8568,7 @@
         <v>539027931957</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1">
+    <row r="351" spans="1:6">
       <c r="A351" t="s">
         <v>140</v>
       </c>
@@ -8589,7 +8588,7 @@
         <v>520273012067</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1">
+    <row r="352" spans="1:6">
       <c r="A352" t="s">
         <v>140</v>
       </c>
@@ -8609,7 +8608,7 @@
         <v>563948033154</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1">
+    <row r="353" spans="1:6">
       <c r="A353" t="s">
         <v>140</v>
       </c>
@@ -8629,7 +8628,7 @@
         <v>536957937847</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1">
+    <row r="354" spans="1:6">
       <c r="A354" t="s">
         <v>140</v>
       </c>
@@ -8649,7 +8648,7 @@
         <v>536920910593</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1">
+    <row r="355" spans="1:6">
       <c r="A355" t="s">
         <v>140</v>
       </c>
@@ -8669,7 +8668,7 @@
         <v>552294913080</v>
       </c>
     </row>
-    <row r="356" spans="1:6" hidden="1">
+    <row r="356" spans="1:6">
       <c r="A356" t="s">
         <v>140</v>
       </c>
@@ -8689,7 +8688,7 @@
         <v>540290207969</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1">
+    <row r="357" spans="1:6">
       <c r="A357" t="s">
         <v>140</v>
       </c>
@@ -8709,7 +8708,7 @@
         <v>540283992485</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1">
+    <row r="358" spans="1:6">
       <c r="A358" t="s">
         <v>140</v>
       </c>
@@ -8729,7 +8728,7 @@
         <v>536695972182</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1">
+    <row r="359" spans="1:6">
       <c r="A359" t="s">
         <v>140</v>
       </c>
@@ -8749,7 +8748,7 @@
         <v>536847011852</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1">
+    <row r="360" spans="1:6">
       <c r="A360" t="s">
         <v>140</v>
       </c>
@@ -8769,7 +8768,7 @@
         <v>536847235462</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1">
+    <row r="361" spans="1:6">
       <c r="A361" t="s">
         <v>140</v>
       </c>
@@ -8789,7 +8788,7 @@
         <v>552329550911</v>
       </c>
     </row>
-    <row r="362" spans="1:6" hidden="1">
+    <row r="362" spans="1:6">
       <c r="A362" t="s">
         <v>140</v>
       </c>
@@ -8809,7 +8808,7 @@
         <v>536847243435</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1">
+    <row r="363" spans="1:6">
       <c r="A363" t="s">
         <v>140</v>
       </c>
@@ -8829,7 +8828,7 @@
         <v>536610825986</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1">
+    <row r="364" spans="1:6">
       <c r="A364" t="s">
         <v>140</v>
       </c>
@@ -8849,7 +8848,7 @@
         <v>536349658964</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1">
+    <row r="365" spans="1:6">
       <c r="A365" t="s">
         <v>140</v>
       </c>
@@ -8870,13 +8869,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F365">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="MOM"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F365"/>
   <conditionalFormatting sqref="F2 E1:E1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
